--- a/data/trans_orig/P1202-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P1202-Habitat-trans_orig.xlsx
@@ -744,19 +744,19 @@
         <v>10491</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>5580</v>
+        <v>5657</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>18209</v>
+        <v>17288</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.01511640316450121</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.008039525469733251</v>
+        <v>0.008150691162190452</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.0262375170537507</v>
+        <v>0.02490954136424067</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>11</v>
@@ -765,19 +765,19 @@
         <v>11483</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>6242</v>
+        <v>6320</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>19604</v>
+        <v>20211</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.01668143609065748</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.009068438361836274</v>
+        <v>0.009181750313307408</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.02847913664309252</v>
+        <v>0.02936131414584175</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>22</v>
@@ -786,19 +786,19 @@
         <v>21974</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>13828</v>
+        <v>13511</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>32625</v>
+        <v>31912</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.01589571504163162</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.01000287137009428</v>
+        <v>0.009773708475668604</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.02360110950665016</v>
+        <v>0.02308529116517299</v>
       </c>
     </row>
     <row r="5">
@@ -815,19 +815,19 @@
         <v>27813</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>19331</v>
+        <v>19305</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>39883</v>
+        <v>40071</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.04007603296340979</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.02785404547513852</v>
+        <v>0.02781692227954487</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.05746799900607977</v>
+        <v>0.05773802595334418</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>33</v>
@@ -836,19 +836,19 @@
         <v>31153</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>21450</v>
+        <v>21499</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>42492</v>
+        <v>42641</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.04525779488890769</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.0311610695869775</v>
+        <v>0.03123309796458137</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.0617304616429221</v>
+        <v>0.0619471183161413</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>62</v>
@@ -857,19 +857,19 @@
         <v>58966</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>45444</v>
+        <v>46696</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>74453</v>
+        <v>76177</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.04265630366922844</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.03287403334198334</v>
+        <v>0.03377990401418404</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.05385925793655762</v>
+        <v>0.05510635257912399</v>
       </c>
     </row>
     <row r="6">
@@ -886,19 +886,19 @@
         <v>98869</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>81509</v>
+        <v>80614</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>119400</v>
+        <v>117825</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.1424602978223582</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.1174456468727386</v>
+        <v>0.1161564312392823</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.1720431284541032</v>
+        <v>0.1697736992276383</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>173</v>
@@ -907,19 +907,19 @@
         <v>171399</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>149677</v>
+        <v>152599</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>195189</v>
+        <v>192473</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.248999493641084</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.21744284479361</v>
+        <v>0.2216876684543108</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.2835605307998585</v>
+        <v>0.279614985881216</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>272</v>
@@ -928,19 +928,19 @@
         <v>270268</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>247716</v>
+        <v>242128</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>303707</v>
+        <v>297443</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.195511744404617</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.1791975485928774</v>
+        <v>0.1751551473474449</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.2197016567290881</v>
+        <v>0.2151700787166613</v>
       </c>
     </row>
     <row r="7">
@@ -957,19 +957,19 @@
         <v>112297</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>93764</v>
+        <v>92537</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>134144</v>
+        <v>130914</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1618088995231086</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1351045182145089</v>
+        <v>0.1333357803923305</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.1932873702215353</v>
+        <v>0.188634107684984</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>126</v>
@@ -978,19 +978,19 @@
         <v>123018</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>105374</v>
+        <v>104743</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>143089</v>
+        <v>144993</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.1787142856786413</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.1530816722996518</v>
+        <v>0.152164737672837</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.2078715389499197</v>
+        <v>0.2106381878479442</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>235</v>
@@ -999,19 +999,19 @@
         <v>235315</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>209262</v>
+        <v>205515</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>261852</v>
+        <v>261551</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.1702269768672316</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1513802354477579</v>
+        <v>0.1486695879486437</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.1894233680165193</v>
+        <v>0.1892055397180276</v>
       </c>
     </row>
     <row r="8">
@@ -1028,19 +1028,19 @@
         <v>268825</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>241561</v>
+        <v>243164</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>295675</v>
+        <v>293852</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.3873485856241022</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.3480648535912382</v>
+        <v>0.3503750517402146</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.4260373022725326</v>
+        <v>0.4234105523568823</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>264</v>
@@ -1049,19 +1049,19 @@
         <v>259683</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>234131</v>
+        <v>233927</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>286319</v>
+        <v>286058</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.3772542648792758</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.3401338063767643</v>
+        <v>0.3398362442191109</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.4159485668595531</v>
+        <v>0.4155704640547954</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>528</v>
@@ -1070,19 +1070,19 @@
         <v>528508</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>496921</v>
+        <v>493851</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>565769</v>
+        <v>565818</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.3823220945410503</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.3594718212884022</v>
+        <v>0.3572513827037784</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.4092765799368687</v>
+        <v>0.4093123003693651</v>
       </c>
     </row>
     <row r="9">
@@ -1099,19 +1099,19 @@
         <v>175717</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>154661</v>
+        <v>152896</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>201938</v>
+        <v>198434</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.2531897809025199</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.2228511405163006</v>
+        <v>0.2203078924375555</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.2909715397897077</v>
+        <v>0.2859233046843162</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>89</v>
@@ -1120,19 +1120,19 @@
         <v>91615</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>74712</v>
+        <v>74298</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>112187</v>
+        <v>107329</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.1330927248214336</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.1085382906422913</v>
+        <v>0.1079361347612798</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.1629794349268659</v>
+        <v>0.155921815459267</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>260</v>
@@ -1141,19 +1141,19 @@
         <v>267331</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>238301</v>
+        <v>239778</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>296384</v>
+        <v>300469</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.1933871654762409</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.1723864729211197</v>
+        <v>0.173455072543957</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.2144037571079979</v>
+        <v>0.2173591768351982</v>
       </c>
     </row>
     <row r="10">
@@ -1245,19 +1245,19 @@
         <v>15375</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>8650</v>
+        <v>9228</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>24313</v>
+        <v>24634</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.01598567167304187</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.008993353262142931</v>
+        <v>0.009594731550172949</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.02527836572253301</v>
+        <v>0.0256124557705766</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>23</v>
@@ -1266,19 +1266,19 @@
         <v>25484</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>16722</v>
+        <v>16443</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>37092</v>
+        <v>37382</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.0263153636082876</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.01726800775124783</v>
+        <v>0.01697963361328815</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.03830226533215939</v>
+        <v>0.03860259454284747</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>38</v>
@@ -1287,19 +1287,19 @@
         <v>40859</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>29980</v>
+        <v>29671</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>56809</v>
+        <v>55371</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.02116815945235709</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.01553231058271938</v>
+        <v>0.01537189898709098</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.0294317995909683</v>
+        <v>0.02868682057507894</v>
       </c>
     </row>
     <row r="12">
@@ -1316,19 +1316,19 @@
         <v>47799</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>36027</v>
+        <v>35141</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>62593</v>
+        <v>61679</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.04969777687878268</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.0374581026898323</v>
+        <v>0.03653667366380509</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.06507933874617748</v>
+        <v>0.06412828725311946</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>69</v>
@@ -1337,19 +1337,19 @@
         <v>76014</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>60300</v>
+        <v>60422</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>94542</v>
+        <v>94499</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.0784945108116983</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.06226809842995795</v>
+        <v>0.0623938299791475</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.09762751701180306</v>
+        <v>0.09758364836901277</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>115</v>
@@ -1358,19 +1358,19 @@
         <v>123813</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>103166</v>
+        <v>102157</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>147889</v>
+        <v>147399</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.06414532503675946</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.05344829858875203</v>
+        <v>0.05292583029981066</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.07661856518115127</v>
+        <v>0.07636498943146697</v>
       </c>
     </row>
     <row r="13">
@@ -1387,19 +1387,19 @@
         <v>159680</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>137689</v>
+        <v>134638</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>183793</v>
+        <v>183275</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1660223333810887</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1431571937066061</v>
+        <v>0.1399855666403239</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1910929003652471</v>
+        <v>0.1905544614783348</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>228</v>
@@ -1408,19 +1408,19 @@
         <v>244487</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>218096</v>
+        <v>217706</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>272531</v>
+        <v>271847</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.2524666085284808</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.2252140950320906</v>
+        <v>0.2248117851200325</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.2814258461589582</v>
+        <v>0.2807202110640499</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>378</v>
@@ -1429,19 +1429,19 @@
         <v>404167</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>364861</v>
+        <v>365936</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>441369</v>
+        <v>436840</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.2093921068798048</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1890280637482312</v>
+        <v>0.1895851713326973</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.2286658158948883</v>
+        <v>0.2263193868047396</v>
       </c>
     </row>
     <row r="14">
@@ -1458,19 +1458,19 @@
         <v>139450</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>118232</v>
+        <v>120589</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>163326</v>
+        <v>163205</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.1449887205194116</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.1229275610999041</v>
+        <v>0.1253780047332448</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.1698128788267325</v>
+        <v>0.1696869743565906</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>196</v>
@@ -1479,19 +1479,19 @@
         <v>207193</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>180441</v>
+        <v>182200</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>231702</v>
+        <v>234150</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.2139555873342943</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.1863306448732954</v>
+        <v>0.1881462851605863</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.2392647015526511</v>
+        <v>0.241792524417526</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>326</v>
@@ -1500,19 +1500,19 @@
         <v>346643</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>310382</v>
+        <v>314293</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>381134</v>
+        <v>385537</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.179589940641596</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.1608036364973929</v>
+        <v>0.1628296791416315</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.1974592321595716</v>
+        <v>0.1997401878921761</v>
       </c>
     </row>
     <row r="15">
@@ -1529,19 +1529,19 @@
         <v>324831</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>296006</v>
+        <v>295927</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>355047</v>
+        <v>353194</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.3377322180482741</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.3077623769101936</v>
+        <v>0.3076804796856928</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.369147991372941</v>
+        <v>0.3672222146972339</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>256</v>
@@ -1550,19 +1550,19 @@
         <v>269468</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>241074</v>
+        <v>243284</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>297785</v>
+        <v>300533</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.2782628836255921</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.2489425774762137</v>
+        <v>0.2512240603330832</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.3075039279414082</v>
+        <v>0.3103421247829455</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>562</v>
@@ -1571,19 +1571,19 @@
         <v>594299</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>552210</v>
+        <v>551882</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>634807</v>
+        <v>638446</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.3078959847102827</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.2860907490035525</v>
+        <v>0.2859205036824498</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.3288828257292597</v>
+        <v>0.3307679245799028</v>
       </c>
     </row>
     <row r="16">
@@ -1600,19 +1600,19 @@
         <v>274664</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>246718</v>
+        <v>248745</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>304355</v>
+        <v>305715</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.285573279499401</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.2565165380188639</v>
+        <v>0.2586247655409666</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.3164427907546877</v>
+        <v>0.3178574950651575</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>136</v>
@@ -1621,19 +1621,19 @@
         <v>145748</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>124103</v>
+        <v>123401</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>168967</v>
+        <v>170989</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.1505050460916468</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.1281540626404598</v>
+        <v>0.1274289417955957</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.1744821278789115</v>
+        <v>0.1765701618031037</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>385</v>
@@ -1642,19 +1642,19 @@
         <v>420412</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>383528</v>
+        <v>388488</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>458469</v>
+        <v>461197</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.2178084832791999</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.1986991484970092</v>
+        <v>0.2012690123300902</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.23752504177361</v>
+        <v>0.2389380576801232</v>
       </c>
     </row>
     <row r="17">
@@ -1746,19 +1746,19 @@
         <v>8374</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>3555</v>
+        <v>3786</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>16267</v>
+        <v>16235</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.01234190737990107</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.005239504765098799</v>
+        <v>0.005579723829050801</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.02397489372217099</v>
+        <v>0.02392812250167923</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>21</v>
@@ -1767,19 +1767,19 @@
         <v>21229</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>12749</v>
+        <v>13903</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>31882</v>
+        <v>33337</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.0310441838021186</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.0186432874347001</v>
+        <v>0.02033047257118365</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.04662218055365979</v>
+        <v>0.04874997731631504</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>29</v>
@@ -1788,19 +1788,19 @@
         <v>29603</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>20392</v>
+        <v>20047</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>42277</v>
+        <v>43147</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.02172964514617512</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.01496834792707955</v>
+        <v>0.01471473065255759</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.03103236461651862</v>
+        <v>0.03167105213443459</v>
       </c>
     </row>
     <row r="19">
@@ -1817,19 +1817,19 @@
         <v>23690</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>14934</v>
+        <v>15250</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>35814</v>
+        <v>34680</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.03491413137118982</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.0220095386598063</v>
+        <v>0.0224755388681701</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.05278274613936836</v>
+        <v>0.05111180293565931</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>35</v>
@@ -1838,19 +1838,19 @@
         <v>33876</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>23600</v>
+        <v>23665</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>45833</v>
+        <v>46706</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.04953720383558025</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.03451153451069987</v>
+        <v>0.03460654198766275</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.0670224581439279</v>
+        <v>0.06830005350468636</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>57</v>
@@ -1859,19 +1859,19 @@
         <v>57565</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>43709</v>
+        <v>43343</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>74426</v>
+        <v>72753</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.04225428433084986</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.03208348043176152</v>
+        <v>0.03181451769640873</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.05463041604190577</v>
+        <v>0.05340233113986795</v>
       </c>
     </row>
     <row r="20">
@@ -1888,19 +1888,19 @@
         <v>92434</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>76912</v>
+        <v>75649</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>113241</v>
+        <v>113314</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.1362310655590447</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.1133539437672403</v>
+        <v>0.111493184630267</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.1668969707011907</v>
+        <v>0.1670049029450464</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>129</v>
@@ -1909,19 +1909,19 @@
         <v>127274</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>108340</v>
+        <v>107348</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>147811</v>
+        <v>147601</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.1861168320971375</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.1584292707133473</v>
+        <v>0.1569781607378935</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.2161479915358995</v>
+        <v>0.2158404048067247</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>218</v>
@@ -1930,19 +1930,19 @@
         <v>219708</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>194730</v>
+        <v>192069</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>247665</v>
+        <v>246103</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.1612715731398676</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.1429369462396972</v>
+        <v>0.1409835361744497</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.1817922981736701</v>
+        <v>0.1806457611199585</v>
       </c>
     </row>
     <row r="21">
@@ -1959,19 +1959,19 @@
         <v>99303</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>80748</v>
+        <v>82342</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>118216</v>
+        <v>120509</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.1463553229164336</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.1190084606176959</v>
+        <v>0.1213570293587171</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.1742287050503925</v>
+        <v>0.177608647953791</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>138</v>
@@ -1980,19 +1980,19 @@
         <v>136884</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>116867</v>
+        <v>115328</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>158730</v>
+        <v>158441</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.2001699512806483</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.1708981115389398</v>
+        <v>0.1686478698462678</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.2321147770784975</v>
+        <v>0.2316921574883563</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>233</v>
@@ -2001,19 +2001,19 @@
         <v>236188</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>206834</v>
+        <v>210935</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>263511</v>
+        <v>268025</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.1733679500248955</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.1518217489940165</v>
+        <v>0.1548315994132833</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.1934240855239757</v>
+        <v>0.1967371050977381</v>
       </c>
     </row>
     <row r="22">
@@ -2030,19 +2030,19 @@
         <v>243000</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>216389</v>
+        <v>218049</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>269794</v>
+        <v>269428</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.3581379113623558</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.3189188831377627</v>
+        <v>0.3213646745505835</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.3976282280360425</v>
+        <v>0.397088547944492</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>225</v>
@@ -2051,19 +2051,19 @@
         <v>221926</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>198368</v>
+        <v>197741</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>247417</v>
+        <v>245977</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.3245291432529735</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.2900797388465384</v>
+        <v>0.2891616953618583</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.3618055361174122</v>
+        <v>0.3596989560420167</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>459</v>
@@ -2072,19 +2072,19 @@
         <v>464926</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>428439</v>
+        <v>428469</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>496525</v>
+        <v>499356</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.3412677563857358</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.3144852656687994</v>
+        <v>0.3145070486326131</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.3644618464312034</v>
+        <v>0.3665399633742372</v>
       </c>
     </row>
     <row r="23">
@@ -2101,19 +2101,19 @@
         <v>211708</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>186817</v>
+        <v>183295</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>236474</v>
+        <v>235029</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.3120196614110751</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.2753349901043341</v>
+        <v>0.2701430974357631</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.348520123912082</v>
+        <v>0.3463902476043693</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>148</v>
@@ -2122,19 +2122,19 @@
         <v>142651</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>123138</v>
+        <v>119728</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>166177</v>
+        <v>162520</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.2086026857315418</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.1800679991144555</v>
+        <v>0.1750820989661749</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.2430046282988676</v>
+        <v>0.237656863696512</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>341</v>
@@ -2143,19 +2143,19 @@
         <v>354359</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>321817</v>
+        <v>322335</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>387671</v>
+        <v>385928</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.2601087909724761</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.2362219242788216</v>
+        <v>0.2366021210538807</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.2845608423249088</v>
+        <v>0.2832812463589363</v>
       </c>
     </row>
     <row r="24">
@@ -2247,19 +2247,19 @@
         <v>15993</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>9693</v>
+        <v>9925</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>24753</v>
+        <v>25398</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.01697335673033875</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.01028694408685381</v>
+        <v>0.01053368307080449</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.02627088609245077</v>
+        <v>0.02695559287078136</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>23</v>
@@ -2268,19 +2268,19 @@
         <v>24161</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>15628</v>
+        <v>15192</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>36104</v>
+        <v>35552</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.0232626431149645</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.01504667811703643</v>
+        <v>0.01462757712353022</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.0347622450877535</v>
+        <v>0.03423040941336199</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>40</v>
@@ -2289,19 +2289,19 @@
         <v>40154</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>29190</v>
+        <v>28960</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>54326</v>
+        <v>54829</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.02027102225979987</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.01473632062823577</v>
+        <v>0.01462032692593409</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.02742567116762933</v>
+        <v>0.02767989066902214</v>
       </c>
     </row>
     <row r="26">
@@ -2318,19 +2318,19 @@
         <v>43967</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>32333</v>
+        <v>31828</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>57788</v>
+        <v>57116</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.04666267780260206</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.03431524539351617</v>
+        <v>0.03377983936507196</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.0613311733814345</v>
+        <v>0.06061802186617245</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>72</v>
@@ -2339,19 +2339,19 @@
         <v>78030</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>61224</v>
+        <v>62206</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>96722</v>
+        <v>95993</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.07512869879939767</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.05894745445559263</v>
+        <v>0.05989345112846544</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.09312613659753891</v>
+        <v>0.09242395730953394</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>117</v>
@@ -2360,19 +2360,19 @@
         <v>121996</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>101982</v>
+        <v>101797</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>144863</v>
+        <v>144517</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.06158828469363495</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.05148447767157614</v>
+        <v>0.05139122391875775</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.07313245613278475</v>
+        <v>0.07295744480132912</v>
       </c>
     </row>
     <row r="27">
@@ -2389,19 +2389,19 @@
         <v>144966</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>125193</v>
+        <v>122822</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>167615</v>
+        <v>166858</v>
       </c>
       <c r="G27" s="6" t="n">
         <v>0.1538555528475269</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.1328696997458001</v>
+        <v>0.1303531567440607</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.1778931242013602</v>
+        <v>0.1770893754406011</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>230</v>
@@ -2410,19 +2410,19 @@
         <v>240334</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>215767</v>
+        <v>213380</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>269583</v>
+        <v>269431</v>
       </c>
       <c r="N27" s="6" t="n">
         <v>0.2313992206030192</v>
       </c>
       <c r="O27" s="6" t="n">
-        <v>0.2077458005035514</v>
+        <v>0.205447622501212</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.2595612599343924</v>
+        <v>0.2594142289039868</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>384</v>
@@ -2431,19 +2431,19 @@
         <v>385300</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>351075</v>
+        <v>350141</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>421418</v>
+        <v>421094</v>
       </c>
       <c r="U27" s="6" t="n">
         <v>0.1945140734724371</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.1772361592252255</v>
+        <v>0.1767646705650531</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.2127476275599155</v>
+        <v>0.2125842804536297</v>
       </c>
     </row>
     <row r="28">
@@ -2460,19 +2460,19 @@
         <v>152922</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>133325</v>
+        <v>131212</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>177395</v>
+        <v>174871</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.1622994526749074</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.1415003323032195</v>
+        <v>0.1392582488801004</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.1882734674093869</v>
+        <v>0.1855941911944681</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>159</v>
@@ -2481,19 +2481,19 @@
         <v>164657</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>141295</v>
+        <v>141769</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>188658</v>
+        <v>189530</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.1585354985135518</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.1360417538600574</v>
+        <v>0.1364989983686867</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.1816439786885516</v>
+        <v>0.1824838907812779</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>315</v>
@@ -2502,19 +2502,19 @@
         <v>317579</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>285292</v>
+        <v>288711</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>353368</v>
+        <v>350403</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.1603258961959536</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.1440262121216215</v>
+        <v>0.1457524453834866</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.1783935792710361</v>
+        <v>0.1768964621804794</v>
       </c>
     </row>
     <row r="29">
@@ -2531,19 +2531,19 @@
         <v>308559</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>279251</v>
+        <v>280829</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>334066</v>
+        <v>337126</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.3274796660928047</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.2963750241758972</v>
+        <v>0.2980502249560072</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.3545511932375319</v>
+        <v>0.3577993347805992</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>312</v>
@@ -2552,19 +2552,19 @@
         <v>320026</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>290033</v>
+        <v>290145</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>352098</v>
+        <v>351082</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.3081282643741767</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.2792507772542847</v>
+        <v>0.2793582263491393</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.3390086453853959</v>
+        <v>0.3380299518069983</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>641</v>
@@ -2573,19 +2573,19 @@
         <v>628584</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>585449</v>
+        <v>591249</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>666034</v>
+        <v>672965</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.3173331333239567</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.2955566087142562</v>
+        <v>0.2984849153690196</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.3362392896024839</v>
+        <v>0.3397381343252508</v>
       </c>
     </row>
     <row r="30">
@@ -2602,19 +2602,19 @@
         <v>275816</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>249868</v>
+        <v>246857</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>305010</v>
+        <v>302872</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.2927292938518203</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.2651899099216483</v>
+        <v>0.2619942570078161</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.3237137957719486</v>
+        <v>0.3214448907005188</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>201</v>
@@ -2623,19 +2623,19 @@
         <v>211405</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>186736</v>
+        <v>184018</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>238232</v>
+        <v>240734</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.2035456745948902</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.1797942147828472</v>
+        <v>0.1771765247147652</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.229374947524097</v>
+        <v>0.2317844228555388</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>494</v>
@@ -2644,19 +2644,19 @@
         <v>487221</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>451703</v>
+        <v>449986</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>525568</v>
+        <v>527689</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.2459675900542178</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.2280370216745113</v>
+        <v>0.2271698769142129</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.2653267668440633</v>
+        <v>0.2663974927242497</v>
       </c>
     </row>
     <row r="31">
@@ -2748,19 +2748,19 @@
         <v>50233</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>38397</v>
+        <v>37771</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>64900</v>
+        <v>65645</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.01533102107908242</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.01171881068039539</v>
+        <v>0.01152784385408854</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.01980754324958998</v>
+        <v>0.02003492256229338</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>78</v>
@@ -2769,19 +2769,19 @@
         <v>82356</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>65327</v>
+        <v>65597</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>102241</v>
+        <v>102511</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.02437160184631858</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.01933203111709647</v>
+        <v>0.01941209366121278</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.03025604788926049</v>
+        <v>0.03033581930869354</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>129</v>
@@ -2790,19 +2790,19 @@
         <v>132589</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>111973</v>
+        <v>112855</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>156794</v>
+        <v>157054</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.01992102959881899</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.01682350786343972</v>
+        <v>0.01695602251501052</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.02355768068663258</v>
+        <v>0.02359673954807128</v>
       </c>
     </row>
     <row r="33">
@@ -2819,19 +2819,19 @@
         <v>143269</v>
       </c>
       <c r="E33" s="5" t="n">
-        <v>119831</v>
+        <v>119828</v>
       </c>
       <c r="F33" s="5" t="n">
-        <v>167853</v>
+        <v>167443</v>
       </c>
       <c r="G33" s="6" t="n">
         <v>0.04372557415370382</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>0.03657243031272205</v>
+        <v>0.03657151237376247</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>0.051228750546131</v>
+        <v>0.05110365643170833</v>
       </c>
       <c r="J33" s="5" t="n">
         <v>209</v>
@@ -2840,19 +2840,19 @@
         <v>219072</v>
       </c>
       <c r="L33" s="5" t="n">
-        <v>191348</v>
+        <v>189893</v>
       </c>
       <c r="M33" s="5" t="n">
-        <v>249170</v>
+        <v>248064</v>
       </c>
       <c r="N33" s="6" t="n">
         <v>0.06482957989157541</v>
       </c>
       <c r="O33" s="6" t="n">
-        <v>0.05662529903691208</v>
+        <v>0.05619459997950382</v>
       </c>
       <c r="P33" s="6" t="n">
-        <v>0.0737364777164576</v>
+        <v>0.07340929521926891</v>
       </c>
       <c r="Q33" s="5" t="n">
         <v>351</v>
@@ -2861,19 +2861,19 @@
         <v>362341</v>
       </c>
       <c r="S33" s="5" t="n">
-        <v>328662</v>
+        <v>326606</v>
       </c>
       <c r="T33" s="5" t="n">
-        <v>400808</v>
+        <v>400034</v>
       </c>
       <c r="U33" s="6" t="n">
         <v>0.05444032452554458</v>
       </c>
       <c r="V33" s="6" t="n">
-        <v>0.04938029068271393</v>
+        <v>0.04907127868391848</v>
       </c>
       <c r="W33" s="6" t="n">
-        <v>0.06021994335148324</v>
+        <v>0.06010358957355763</v>
       </c>
     </row>
     <row r="34">
@@ -2890,19 +2890,19 @@
         <v>495950</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>456751</v>
+        <v>456341</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>536492</v>
+        <v>537457</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.1513636559990195</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.1394003485012218</v>
+        <v>0.1392750497318413</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.1637370812922158</v>
+        <v>0.164031792203314</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>760</v>
@@ -2911,19 +2911,19 @@
         <v>783494</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>734074</v>
+        <v>735744</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>832417</v>
+        <v>833807</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.2318581226844633</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.2172331952231665</v>
+        <v>0.2177275491282941</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.2463358517280316</v>
+        <v>0.2467471712852428</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>1252</v>
@@ -2932,19 +2932,19 @@
         <v>1279444</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>1212762</v>
+        <v>1222773</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>1341950</v>
+        <v>1348356</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.1922316375358728</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.1822129821831635</v>
+        <v>0.1837170404575194</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.2016229208672524</v>
+        <v>0.202585463251968</v>
       </c>
     </row>
     <row r="35">
@@ -2961,19 +2961,19 @@
         <v>503973</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>464213</v>
+        <v>464408</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>543508</v>
+        <v>551127</v>
       </c>
       <c r="G35" s="6" t="n">
         <v>0.1538124143408308</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>0.141677596842484</v>
+        <v>0.1417372519248465</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.1658784223633619</v>
+        <v>0.1682037984949152</v>
       </c>
       <c r="J35" s="5" t="n">
         <v>619</v>
@@ -2982,19 +2982,19 @@
         <v>631753</v>
       </c>
       <c r="L35" s="5" t="n">
-        <v>584043</v>
+        <v>588346</v>
       </c>
       <c r="M35" s="5" t="n">
-        <v>677688</v>
+        <v>678126</v>
       </c>
       <c r="N35" s="6" t="n">
         <v>0.1869534522684754</v>
       </c>
       <c r="O35" s="6" t="n">
-        <v>0.1728348596935335</v>
+        <v>0.1741082675041841</v>
       </c>
       <c r="P35" s="6" t="n">
-        <v>0.200547176002593</v>
+        <v>0.2006767368515849</v>
       </c>
       <c r="Q35" s="5" t="n">
         <v>1109</v>
@@ -3003,19 +3003,19 @@
         <v>1135726</v>
       </c>
       <c r="S35" s="5" t="n">
-        <v>1070269</v>
+        <v>1072315</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>1195842</v>
+        <v>1194591</v>
       </c>
       <c r="U35" s="6" t="n">
         <v>0.1706385066414592</v>
       </c>
       <c r="V35" s="6" t="n">
-        <v>0.1608038398634705</v>
+        <v>0.1611113411879095</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.1796707805835391</v>
+        <v>0.1794828475484238</v>
       </c>
     </row>
     <row r="36">
@@ -3032,19 +3032,19 @@
         <v>1145214</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>1090405</v>
+        <v>1090444</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>1199993</v>
+        <v>1197578</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.3495189159342565</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.3327911563086537</v>
+        <v>0.3328031671557846</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.3662374859349002</v>
+        <v>0.3655005189123668</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>1057</v>
@@ -3053,19 +3053,19 @@
         <v>1071103</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>1021075</v>
+        <v>1016349</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>1132773</v>
+        <v>1124805</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.3169697486378649</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.3021648447861782</v>
+        <v>0.3007663360229064</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.3352195678080376</v>
+        <v>0.3328617601252229</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>2190</v>
@@ -3074,19 +3074,19 @@
         <v>2216317</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>2138205</v>
+        <v>2133971</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>2292697</v>
+        <v>2287406</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.3329933232707619</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.3212572282798263</v>
+        <v>0.3206210547064332</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.3444691165564921</v>
+        <v>0.3436741946625193</v>
       </c>
     </row>
     <row r="37">
@@ -3103,19 +3103,19 @@
         <v>937905</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>886574</v>
+        <v>886968</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>991397</v>
+        <v>985958</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.2862484184931069</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.27058206120103</v>
+        <v>0.2707022683840842</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.3025739937696517</v>
+        <v>0.3009139598580416</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>574</v>
@@ -3124,19 +3124,19 @@
         <v>591419</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>545426</v>
+        <v>548168</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>633389</v>
+        <v>638159</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.1750174946713024</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.1614068459002451</v>
+        <v>0.1622183057385967</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.187437613591148</v>
+        <v>0.1888493101079443</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>1480</v>
@@ -3145,19 +3145,19 @@
         <v>1529324</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>1464698</v>
+        <v>1460290</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>1601465</v>
+        <v>1598300</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.2297751784275425</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.2200652897878668</v>
+        <v>0.2194031253345536</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.2406140124565565</v>
+        <v>0.2401385803170303</v>
       </c>
     </row>
     <row r="38">
@@ -3489,19 +3489,19 @@
         <v>13202</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>7305</v>
+        <v>6973</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>23012</v>
+        <v>22285</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.01879236106540606</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.01039841989723012</v>
+        <v>0.009926627273789594</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.03275727510938548</v>
+        <v>0.03172188615109647</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>33</v>
@@ -3510,19 +3510,19 @@
         <v>36572</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>26263</v>
+        <v>26187</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>50903</v>
+        <v>51133</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.05253806730871936</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.03772870841022608</v>
+        <v>0.03762010194338954</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.07312657426937259</v>
+        <v>0.0734564886404645</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>46</v>
@@ -3531,19 +3531,19 @@
         <v>49773</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>37337</v>
+        <v>36441</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>64985</v>
+        <v>65875</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.03558795367946678</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.02669578825049701</v>
+        <v>0.02605557536560001</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.0464642377002939</v>
+        <v>0.04710076728608645</v>
       </c>
     </row>
     <row r="5">
@@ -3560,19 +3560,19 @@
         <v>22786</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>14603</v>
+        <v>14477</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>35101</v>
+        <v>34412</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.03243517339074231</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.0207877632054373</v>
+        <v>0.02060833764825487</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.04996524371007369</v>
+        <v>0.04898537843324483</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>44</v>
@@ -3581,19 +3581,19 @@
         <v>47728</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>34540</v>
+        <v>35563</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>62839</v>
+        <v>64299</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.06856465719776418</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.04961898871058421</v>
+        <v>0.05108943151068015</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.09027335686855374</v>
+        <v>0.09237020778591012</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>65</v>
@@ -3602,19 +3602,19 @@
         <v>70514</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>54321</v>
+        <v>54820</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>90945</v>
+        <v>88574</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.05041719714818799</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.03883915916999123</v>
+        <v>0.03919623178304682</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.06502528031717632</v>
+        <v>0.06333037904508118</v>
       </c>
     </row>
     <row r="6">
@@ -3631,19 +3631,19 @@
         <v>90372</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>73985</v>
+        <v>74934</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>108126</v>
+        <v>109674</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.1286420965686669</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.1053158773484816</v>
+        <v>0.1066666293406904</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.1539150252839919</v>
+        <v>0.1561183240955646</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>117</v>
@@ -3652,19 +3652,19 @@
         <v>125944</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>107208</v>
+        <v>106046</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>147472</v>
+        <v>149434</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.1809288295594634</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.1540122295401382</v>
+        <v>0.1523439125507166</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.2118545583776949</v>
+        <v>0.2146738856423507</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>204</v>
@@ -3673,19 +3673,19 @@
         <v>216316</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>190433</v>
+        <v>189191</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>243815</v>
+        <v>244207</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.1546657530333349</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.1361591342461387</v>
+        <v>0.1352715193492626</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.1743272938244967</v>
+        <v>0.1746074996694479</v>
       </c>
     </row>
     <row r="7">
@@ -3702,19 +3702,19 @@
         <v>91779</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>74703</v>
+        <v>73993</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>110520</v>
+        <v>111729</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1306455527650337</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1063388691530364</v>
+        <v>0.105328089371597</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.1573222408887256</v>
+        <v>0.1590438741973807</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>115</v>
@@ -3723,19 +3723,19 @@
         <v>124182</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>104578</v>
+        <v>102799</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>144536</v>
+        <v>144519</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.1783964485731119</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.1502346808393877</v>
+        <v>0.1476786080340474</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.2076369510530918</v>
+        <v>0.2076133331108781</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>203</v>
@@ -3744,19 +3744,19 @@
         <v>215961</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>188348</v>
+        <v>188099</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>245081</v>
+        <v>241147</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.1544116753990165</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1346686406718323</v>
+        <v>0.1344904216648677</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.175232549310732</v>
+        <v>0.1724196831491885</v>
       </c>
     </row>
     <row r="8">
@@ -3773,19 +3773,19 @@
         <v>242719</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>216311</v>
+        <v>218115</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>265443</v>
+        <v>269893</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.3455060832934518</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.3079145462069725</v>
+        <v>0.3104822052525499</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.3778526771171201</v>
+        <v>0.3841870804364889</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>201</v>
@@ -3794,19 +3794,19 @@
         <v>214888</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>189148</v>
+        <v>190043</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>240378</v>
+        <v>240391</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.3087032361984946</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.2717260286466689</v>
+        <v>0.273011148151409</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.3453217191592624</v>
+        <v>0.3453409155448156</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>432</v>
@@ -3815,19 +3815,19 @@
         <v>457607</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>418758</v>
+        <v>426481</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>490100</v>
+        <v>499455</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.3271889195515624</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.2994116295672454</v>
+        <v>0.3049338419682951</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.3504213044857716</v>
+        <v>0.3571101229382936</v>
       </c>
     </row>
     <row r="9">
@@ -3844,19 +3844,19 @@
         <v>241646</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>217888</v>
+        <v>217752</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>270487</v>
+        <v>266641</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.3439787329166992</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.3101589791691584</v>
+        <v>0.3099649673089931</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.3850328136568698</v>
+        <v>0.3795579879432122</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>139</v>
@@ -3865,19 +3865,19 @@
         <v>146786</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>127142</v>
+        <v>126195</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>168866</v>
+        <v>168835</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.2108687611624466</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.1826493773719851</v>
+        <v>0.1812894055244296</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.2425885280184052</v>
+        <v>0.2425443863239611</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>372</v>
@@ -3886,19 +3886,19 @@
         <v>388432</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>354954</v>
+        <v>353146</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>420958</v>
+        <v>421606</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.2777285011884315</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.2537915121315913</v>
+        <v>0.2524994071350575</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.3009844345227982</v>
+        <v>0.3014476986969714</v>
       </c>
     </row>
     <row r="10">
@@ -3990,19 +3990,19 @@
         <v>30313</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>21179</v>
+        <v>20632</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>43922</v>
+        <v>43637</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.02981176808984649</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.02082860877995824</v>
+        <v>0.02029059222349806</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.04319574032123026</v>
+        <v>0.04291507777890888</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>41</v>
@@ -4011,19 +4011,19 @@
         <v>47247</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>34062</v>
+        <v>34867</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>63047</v>
+        <v>63445</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.04582112054081491</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.03303446403177037</v>
+        <v>0.03381508671807146</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.06114411270691957</v>
+        <v>0.06153041121911136</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>69</v>
@@ -4032,19 +4032,19 @@
         <v>77560</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>60959</v>
+        <v>60913</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>98545</v>
+        <v>97355</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.03787235369479476</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.02976586594124593</v>
+        <v>0.0297434885163916</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.04811942775709029</v>
+        <v>0.04753810986229393</v>
       </c>
     </row>
     <row r="12">
@@ -4061,19 +4061,19 @@
         <v>28875</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>19320</v>
+        <v>19598</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>41555</v>
+        <v>41169</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.02839793297096814</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.01900025376142988</v>
+        <v>0.01927392541311545</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.04086788597819524</v>
+        <v>0.04048776980159528</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>47</v>
@@ -4082,19 +4082,19 @@
         <v>52504</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>38739</v>
+        <v>38028</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>69219</v>
+        <v>69438</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.05091909232336329</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.03757012522273374</v>
+        <v>0.03688056066501103</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.06713023490171834</v>
+        <v>0.06734191664897674</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>73</v>
@@ -4103,19 +4103,19 @@
         <v>81379</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>62710</v>
+        <v>64872</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>100336</v>
+        <v>101004</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.03973716317647725</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.03062128450995625</v>
+        <v>0.03167689784995024</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.04899377310819476</v>
+        <v>0.04931988839759813</v>
       </c>
     </row>
     <row r="13">
@@ -4132,19 +4132,19 @@
         <v>118268</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>99219</v>
+        <v>97884</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>140991</v>
+        <v>140903</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1163117664677998</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.09757805367069265</v>
+        <v>0.09626523810504151</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1386590148400565</v>
+        <v>0.1385723293701057</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>167</v>
@@ -4153,19 +4153,19 @@
         <v>183240</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>158013</v>
+        <v>159298</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>209538</v>
+        <v>211003</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1777099530991009</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1532440573304219</v>
+        <v>0.1544905439714889</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.2032139266079045</v>
+        <v>0.2046346388914614</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>275</v>
@@ -4174,19 +4174,19 @@
         <v>301508</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>267080</v>
+        <v>270957</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>336653</v>
+        <v>337426</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.1472252803557557</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1304141748722259</v>
+        <v>0.1323074000820128</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1643867241647483</v>
+        <v>0.164764158357639</v>
       </c>
     </row>
     <row r="14">
@@ -4203,19 +4203,19 @@
         <v>122959</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>103564</v>
+        <v>102443</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>146661</v>
+        <v>146493</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.1209257828328506</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.1018513856494235</v>
+        <v>0.1007484512974323</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.1442358879345501</v>
+        <v>0.1440706267845716</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>126</v>
@@ -4224,19 +4224,19 @@
         <v>138126</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>118254</v>
+        <v>117153</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>163414</v>
+        <v>160666</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.1339569358401784</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.114685084780754</v>
+        <v>0.1136173439663717</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.1584818214623698</v>
+        <v>0.1558165271555729</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>237</v>
@@ -4245,19 +4245,19 @@
         <v>261085</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>232850</v>
+        <v>231277</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>292795</v>
+        <v>295375</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.1274868679653346</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.1136998840898572</v>
+        <v>0.1129316208125348</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.1429707125434623</v>
+        <v>0.1442307164513638</v>
       </c>
     </row>
     <row r="15">
@@ -4274,19 +4274,19 @@
         <v>349473</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>318035</v>
+        <v>316190</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>380444</v>
+        <v>383139</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.3436930935257624</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.3127755335268965</v>
+        <v>0.3109604189172619</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.3741518093799309</v>
+        <v>0.3768026826209506</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>288</v>
@@ -4295,19 +4295,19 @@
         <v>311123</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>281825</v>
+        <v>282425</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>343482</v>
+        <v>340647</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.3017327239671155</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.2733197371251152</v>
+        <v>0.2739015278800283</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.333115190106142</v>
+        <v>0.330366487607234</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>606</v>
@@ -4316,19 +4316,19 @@
         <v>660595</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>617513</v>
+        <v>614368</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>709759</v>
+        <v>707319</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.3225663707630139</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.3015296038808309</v>
+        <v>0.2999937083977635</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.3465732160905998</v>
+        <v>0.3453817263225658</v>
       </c>
     </row>
     <row r="16">
@@ -4345,19 +4345,19 @@
         <v>366928</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>336929</v>
+        <v>332111</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>398282</v>
+        <v>396922</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.3608596561127727</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.3313565050547726</v>
+        <v>0.3266182460831903</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.3916950799227683</v>
+        <v>0.3903576143972343</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>270</v>
@@ -4366,19 +4366,19 @@
         <v>298881</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>270083</v>
+        <v>270654</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>330511</v>
+        <v>332864</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.289860174229427</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.2619314718617263</v>
+        <v>0.2624851763490305</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.3205358402914845</v>
+        <v>0.3228177093215454</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>614</v>
@@ -4387,19 +4387,19 @@
         <v>665808</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>619822</v>
+        <v>621714</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>712962</v>
+        <v>709692</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.3251119640446239</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.3026568463652659</v>
+        <v>0.3035809201379976</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.348137207085174</v>
+        <v>0.3465403788220067</v>
       </c>
     </row>
     <row r="17">
@@ -4491,19 +4491,19 @@
         <v>20927</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>13635</v>
+        <v>13463</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>33071</v>
+        <v>33877</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.02762207684587402</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.01799768544403976</v>
+        <v>0.01777012103022817</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.04365097536832308</v>
+        <v>0.04471534159118253</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>35</v>
@@ -4512,19 +4512,19 @@
         <v>41562</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>29289</v>
+        <v>29883</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>57625</v>
+        <v>59533</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.05382139872398138</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.03792750016767005</v>
+        <v>0.03869654782141336</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.07462157608305432</v>
+        <v>0.07709186086207438</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>54</v>
@@ -4533,19 +4533,19 @@
         <v>62490</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>48808</v>
+        <v>47255</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>82808</v>
+        <v>82600</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.04084680106724499</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.03190403169045905</v>
+        <v>0.03088888123334753</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.05412822949087859</v>
+        <v>0.05399218312752169</v>
       </c>
     </row>
     <row r="19">
@@ -4562,19 +4562,19 @@
         <v>27322</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>16919</v>
+        <v>17458</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>41797</v>
+        <v>41155</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.03606267096676782</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.02233183700212405</v>
+        <v>0.02304301326325149</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.05516797295132544</v>
+        <v>0.05432157848970086</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>43</v>
@@ -4583,19 +4583,19 @@
         <v>49121</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>35823</v>
+        <v>35967</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>66403</v>
+        <v>66194</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.06360911851621355</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.04638857491568658</v>
+        <v>0.04657613661337066</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.08598863922954485</v>
+        <v>0.08571766965348608</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>65</v>
@@ -4604,19 +4604,19 @@
         <v>76443</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>60676</v>
+        <v>59014</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>96554</v>
+        <v>96201</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.0499673885703288</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.03966154841841339</v>
+        <v>0.03857472533068286</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.06311324328980113</v>
+        <v>0.06288234019010247</v>
       </c>
     </row>
     <row r="20">
@@ -4633,19 +4633,19 @@
         <v>110679</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>92360</v>
+        <v>90888</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>132701</v>
+        <v>131867</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.1460873493935222</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.1219074334541901</v>
+        <v>0.1199642400319221</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.1751546456390206</v>
+        <v>0.1740536168859598</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>132</v>
@@ -4654,19 +4654,19 @@
         <v>140451</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>121023</v>
+        <v>120341</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>165945</v>
+        <v>164554</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.1818768917592423</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.1567188185595858</v>
+        <v>0.1558360359881715</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.2148907407595321</v>
+        <v>0.2130892371741624</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>232</v>
@@ -4675,19 +4675,19 @@
         <v>251130</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>223694</v>
+        <v>221380</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>282880</v>
+        <v>283446</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.1641529630761124</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.1462192768714186</v>
+        <v>0.1447066726365575</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.1849065311382633</v>
+        <v>0.1852764421293406</v>
       </c>
     </row>
     <row r="21">
@@ -4704,19 +4704,19 @@
         <v>101468</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>83481</v>
+        <v>85173</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>121622</v>
+        <v>123377</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.1339288809632597</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.1101879322716996</v>
+        <v>0.1124211295769782</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.1605308833683597</v>
+        <v>0.1628477045019624</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>98</v>
@@ -4725,19 +4725,19 @@
         <v>105355</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>87869</v>
+        <v>86214</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>127373</v>
+        <v>125391</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.1364300425992793</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.1137866386950237</v>
+        <v>0.1116435544084178</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.1649413763494663</v>
+        <v>0.1623748318332362</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>191</v>
@@ -4746,19 +4746,19 @@
         <v>206823</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>179385</v>
+        <v>179851</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>235624</v>
+        <v>235215</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.1351914011545579</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.1172561720893184</v>
+        <v>0.1175607300157381</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.1540172199123114</v>
+        <v>0.1537499137406951</v>
       </c>
     </row>
     <row r="22">
@@ -4775,19 +4775,19 @@
         <v>163510</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>142760</v>
+        <v>142799</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>187455</v>
+        <v>187672</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.2158190888356421</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.1884317751821461</v>
+        <v>0.1884835198266963</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.2474253234874011</v>
+        <v>0.2477112628788865</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>155</v>
@@ -4796,19 +4796,19 @@
         <v>174238</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>148903</v>
+        <v>150794</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>197202</v>
+        <v>200760</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.2256297897620476</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.1928222089875727</v>
+        <v>0.1952710504932497</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.255366935053401</v>
+        <v>0.2599742753774905</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>303</v>
@@ -4817,19 +4817,19 @@
         <v>337747</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>304748</v>
+        <v>303634</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>373805</v>
+        <v>373523</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.2207712709865274</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.1992008345498349</v>
+        <v>0.1984729411399943</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.2443404725759452</v>
+        <v>0.2441565595840724</v>
       </c>
     </row>
     <row r="23">
@@ -4846,19 +4846,19 @@
         <v>333718</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>305097</v>
+        <v>306427</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>362185</v>
+        <v>361604</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.4404799329949341</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.4027028033954839</v>
+        <v>0.4044583255099167</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.4780546396205271</v>
+        <v>0.4772881010761631</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>238</v>
@@ -4867,19 +4867,19 @@
         <v>261502</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>235902</v>
+        <v>233029</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>289091</v>
+        <v>287441</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.3386327586392359</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.3054817213090272</v>
+        <v>0.3017614967467787</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.3743588092584259</v>
+        <v>0.3722225110982327</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>545</v>
@@ -4888,19 +4888,19 @@
         <v>595220</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>550385</v>
+        <v>550482</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>631936</v>
+        <v>634832</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.3890701751452285</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.3597634831002756</v>
+        <v>0.3598271197271878</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.4130701522240312</v>
+        <v>0.4149632474854011</v>
       </c>
     </row>
     <row r="24">
@@ -4992,19 +4992,19 @@
         <v>13039</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>6294</v>
+        <v>6891</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>23166</v>
+        <v>25404</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.01377164950062769</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.006647818718544292</v>
+        <v>0.007277834119658172</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.02446749825693818</v>
+        <v>0.02683171546747814</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>39</v>
@@ -5013,19 +5013,19 @@
         <v>39678</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>29580</v>
+        <v>28758</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>53359</v>
+        <v>53528</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.03771989906507397</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.02812013654551238</v>
+        <v>0.02733891565225326</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.05072603317382525</v>
+        <v>0.05088689933583921</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>50</v>
@@ -5034,19 +5034,19 @@
         <v>52717</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>40201</v>
+        <v>37334</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>69196</v>
+        <v>68206</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.02637541465803996</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.02011353931307809</v>
+        <v>0.01867899341125961</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.03462027981034307</v>
+        <v>0.03412527864695606</v>
       </c>
     </row>
     <row r="26">
@@ -5063,19 +5063,19 @@
         <v>32461</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>22054</v>
+        <v>21207</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>45832</v>
+        <v>46853</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.03428497371404656</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.02329292518870065</v>
+        <v>0.02239861036331716</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.04840666712596695</v>
+        <v>0.04948572951071472</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>49</v>
@@ -5084,19 +5084,19 @@
         <v>52880</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>39089</v>
+        <v>38937</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>69626</v>
+        <v>70592</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.0502712063132002</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.03716019173176965</v>
+        <v>0.03701629693115366</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.06619094277439015</v>
+        <v>0.06710926148631415</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>77</v>
@@ -5105,19 +5105,19 @@
         <v>85341</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>66664</v>
+        <v>68544</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>106093</v>
+        <v>106556</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.0426983953668186</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.03335379607308914</v>
+        <v>0.03429433299255465</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.05308115681181991</v>
+        <v>0.05331245860831004</v>
       </c>
     </row>
     <row r="27">
@@ -5134,19 +5134,19 @@
         <v>161822</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>138582</v>
+        <v>138415</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>187637</v>
+        <v>190101</v>
       </c>
       <c r="G27" s="6" t="n">
         <v>0.1709140268672502</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.1463687954304907</v>
+        <v>0.1461918786106447</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.1981798427010802</v>
+        <v>0.2007823658519939</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>238</v>
@@ -5155,19 +5155,19 @@
         <v>252618</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>225758</v>
+        <v>223643</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>281137</v>
+        <v>280975</v>
       </c>
       <c r="N27" s="6" t="n">
         <v>0.2401535285863013</v>
       </c>
       <c r="O27" s="6" t="n">
-        <v>0.2146191712708039</v>
+        <v>0.2126080972298797</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.2672653586520127</v>
+        <v>0.2671121087933632</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>388</v>
@@ -5176,19 +5176,19 @@
         <v>414439</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>378564</v>
+        <v>375136</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>452683</v>
+        <v>451544</v>
       </c>
       <c r="U27" s="6" t="n">
         <v>0.2073542024606576</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.1894047008562409</v>
+        <v>0.1876897837141289</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.2264883056709013</v>
+        <v>0.225918640437504</v>
       </c>
     </row>
     <row r="28">
@@ -5205,19 +5205,19 @@
         <v>164411</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>142684</v>
+        <v>140548</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>189681</v>
+        <v>189652</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.1736488199579585</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.1507007993185551</v>
+        <v>0.148445364191498</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.2003388770564613</v>
+        <v>0.2003076866710568</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>141</v>
@@ -5226,19 +5226,19 @@
         <v>148515</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>125084</v>
+        <v>129067</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>172578</v>
+        <v>177120</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.1411868652430775</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.1189123606957879</v>
+        <v>0.1226987735747433</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.1640628411973354</v>
+        <v>0.1683807928251784</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>296</v>
@@ -5247,19 +5247,19 @@
         <v>312926</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>280758</v>
+        <v>278521</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>346198</v>
+        <v>347197</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.1565643623788823</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.1404702743303755</v>
+        <v>0.1393507355777815</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.1732113391114442</v>
+        <v>0.1737113957484636</v>
       </c>
     </row>
     <row r="29">
@@ -5276,19 +5276,19 @@
         <v>298601</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>269488</v>
+        <v>267525</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>327912</v>
+        <v>329174</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.3153786848753243</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.2846295616463922</v>
+        <v>0.2825563785555961</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.3463358771313276</v>
+        <v>0.3476689953048241</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>334</v>
@@ -5297,19 +5297,19 @@
         <v>350519</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>318556</v>
+        <v>316524</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>380553</v>
+        <v>378663</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.3332239753519741</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.3028380496084816</v>
+        <v>0.3009070755568415</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.3617762675482348</v>
+        <v>0.3599800093052964</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>625</v>
@@ -5318,19 +5318,19 @@
         <v>649120</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>606917</v>
+        <v>608161</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>693516</v>
+        <v>690506</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.3247705132729795</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.3036553347313435</v>
+        <v>0.3042780188875057</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.3469828515106703</v>
+        <v>0.3454769656024236</v>
       </c>
     </row>
     <row r="30">
@@ -5347,19 +5347,19 @@
         <v>276468</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>248546</v>
+        <v>249364</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>307080</v>
+        <v>308012</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.2920018450847927</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.2625113988041828</v>
+        <v>0.2633745138063721</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.3243343399464581</v>
+        <v>0.3253187993175032</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>202</v>
@@ -5368,19 +5368,19 @@
         <v>207692</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>181957</v>
+        <v>181289</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>232935</v>
+        <v>234954</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.1974445254403729</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.1729796657693906</v>
+        <v>0.1723440406789604</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.2214419868015284</v>
+        <v>0.2233616424217996</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>476</v>
@@ -5389,19 +5389,19 @@
         <v>484160</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>451283</v>
+        <v>446248</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>525564</v>
+        <v>521951</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.2422371118626221</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.2257881684604261</v>
+        <v>0.2232686183669002</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.2629525165857244</v>
+        <v>0.2611448974236568</v>
       </c>
     </row>
     <row r="31">
@@ -5493,19 +5493,19 @@
         <v>77481</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>59595</v>
+        <v>59574</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>94657</v>
+        <v>98252</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.02263046306738403</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.0174065066201432</v>
+        <v>0.01740022514065566</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.02764731271004822</v>
+        <v>0.02869732469883719</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>148</v>
@@ -5514,19 +5514,19 @@
         <v>165059</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>140019</v>
+        <v>140412</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>192414</v>
+        <v>193915</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.046477779677466</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.03942706410289141</v>
+        <v>0.03953762336495532</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.05418061775621731</v>
+        <v>0.05460308085268381</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>219</v>
@@ -5535,19 +5535,19 @@
         <v>242540</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>211699</v>
+        <v>212061</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>274471</v>
+        <v>278046</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.03477225565706019</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.03035071308457029</v>
+        <v>0.03040257709674838</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.03935015655500438</v>
+        <v>0.03986264549203931</v>
       </c>
     </row>
     <row r="33">
@@ -5564,19 +5564,19 @@
         <v>111444</v>
       </c>
       <c r="E33" s="5" t="n">
-        <v>90967</v>
+        <v>89146</v>
       </c>
       <c r="F33" s="5" t="n">
-        <v>135982</v>
+        <v>136224</v>
       </c>
       <c r="G33" s="6" t="n">
         <v>0.03255041059419846</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>0.0265694626157826</v>
+        <v>0.0260376003540887</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>0.03971744710558154</v>
+        <v>0.03978806142731799</v>
       </c>
       <c r="J33" s="5" t="n">
         <v>183</v>
@@ -5585,19 +5585,19 @@
         <v>202233</v>
       </c>
       <c r="L33" s="5" t="n">
-        <v>174604</v>
+        <v>175136</v>
       </c>
       <c r="M33" s="5" t="n">
-        <v>233164</v>
+        <v>231954</v>
       </c>
       <c r="N33" s="6" t="n">
         <v>0.05694529838618578</v>
       </c>
       <c r="O33" s="6" t="n">
-        <v>0.04916567944290984</v>
+        <v>0.04931534819810068</v>
       </c>
       <c r="P33" s="6" t="n">
-        <v>0.06565500459736495</v>
+        <v>0.06531422675094756</v>
       </c>
       <c r="Q33" s="5" t="n">
         <v>280</v>
@@ -5606,19 +5606,19 @@
         <v>313677</v>
       </c>
       <c r="S33" s="5" t="n">
-        <v>276995</v>
+        <v>277647</v>
       </c>
       <c r="T33" s="5" t="n">
-        <v>349417</v>
+        <v>351881</v>
       </c>
       <c r="U33" s="6" t="n">
         <v>0.0449709974745483</v>
       </c>
       <c r="V33" s="6" t="n">
-        <v>0.03971198007579844</v>
+        <v>0.03980547335122204</v>
       </c>
       <c r="W33" s="6" t="n">
-        <v>0.05009501680080299</v>
+        <v>0.05044820794785626</v>
       </c>
     </row>
     <row r="34">
@@ -5635,19 +5635,19 @@
         <v>481140</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>438612</v>
+        <v>441649</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>522042</v>
+        <v>523570</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.1405303715277354</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.1281088658788734</v>
+        <v>0.1289959168154097</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.1524767676451143</v>
+        <v>0.1529232228369369</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>654</v>
@@ -5656,19 +5656,19 @@
         <v>702253</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>655443</v>
+        <v>655472</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>751307</v>
+        <v>750917</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.197742608127933</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.1845617200898275</v>
+        <v>0.1845698750422991</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.211555326276629</v>
+        <v>0.2114454484447497</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>1099</v>
@@ -5677,19 +5677,19 @@
         <v>1183393</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>1118237</v>
+        <v>1112619</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>1247195</v>
+        <v>1242635</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.169659817064488</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.1603185073119643</v>
+        <v>0.1595131190412873</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.1788068703440578</v>
+        <v>0.1781531766378439</v>
       </c>
     </row>
     <row r="35">
@@ -5706,19 +5706,19 @@
         <v>480617</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>440638</v>
+        <v>442148</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>528039</v>
+        <v>528942</v>
       </c>
       <c r="G35" s="6" t="n">
         <v>0.1403775589882435</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>0.1287005010972021</v>
+        <v>0.1291415524355543</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.1542285272681774</v>
+        <v>0.1544921395593395</v>
       </c>
       <c r="J35" s="5" t="n">
         <v>480</v>
@@ -5727,19 +5727,19 @@
         <v>516177</v>
       </c>
       <c r="L35" s="5" t="n">
-        <v>474297</v>
+        <v>475918</v>
       </c>
       <c r="M35" s="5" t="n">
-        <v>563645</v>
+        <v>558514</v>
       </c>
       <c r="N35" s="6" t="n">
         <v>0.1453467752202978</v>
       </c>
       <c r="O35" s="6" t="n">
-        <v>0.1335540706414</v>
+        <v>0.1340104932541143</v>
       </c>
       <c r="P35" s="6" t="n">
-        <v>0.15871283623581</v>
+        <v>0.1572682470775013</v>
       </c>
       <c r="Q35" s="5" t="n">
         <v>927</v>
@@ -5748,19 +5748,19 @@
         <v>996794</v>
       </c>
       <c r="S35" s="5" t="n">
-        <v>938222</v>
+        <v>934166</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>1060592</v>
+        <v>1056907</v>
       </c>
       <c r="U35" s="6" t="n">
         <v>0.1429076211251863</v>
       </c>
       <c r="V35" s="6" t="n">
-        <v>0.1345102818792301</v>
+        <v>0.1339287710765456</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.1520541826809665</v>
+        <v>0.1515259046840079</v>
       </c>
     </row>
     <row r="36">
@@ -5777,19 +5777,19 @@
         <v>1054303</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>990862</v>
+        <v>998923</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>1105259</v>
+        <v>1109129</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.3079384315413158</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.2894087826496662</v>
+        <v>0.2917632053609461</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.3228216430520978</v>
+        <v>0.3239518879321143</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>978</v>
@@ -5798,19 +5798,19 @@
         <v>1050767</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>991203</v>
+        <v>995262</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>1101129</v>
+        <v>1109554</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.2958783188146017</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.2791061461436475</v>
+        <v>0.2802490817848142</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.3100593594805872</v>
+        <v>0.3124317991708514</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>1966</v>
@@ -5819,19 +5819,19 @@
         <v>2105070</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>2026297</v>
+        <v>2028999</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>2179935</v>
+        <v>2184996</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.301798059870569</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.2905046436452224</v>
+        <v>0.2908919781420807</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.3125313304140788</v>
+        <v>0.3132568793360764</v>
       </c>
     </row>
     <row r="37">
@@ -5848,19 +5848,19 @@
         <v>1218760</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>1154869</v>
+        <v>1163504</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>1277157</v>
+        <v>1277160</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.3559727642811227</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.3373117538068439</v>
+        <v>0.3398335996803935</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.3730293548317415</v>
+        <v>0.3730302401325425</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>849</v>
@@ -5869,19 +5869,19 @@
         <v>914860</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>866037</v>
+        <v>864693</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>969742</v>
+        <v>967584</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.2576092197735158</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.2438613734757797</v>
+        <v>0.2434830240580903</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.2730629103041583</v>
+        <v>0.2724552824760578</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>2007</v>
@@ -5890,19 +5890,19 @@
         <v>2133620</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>2061819</v>
+        <v>2054173</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>2218982</v>
+        <v>2211767</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.3058912488081482</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.2955972573336096</v>
+        <v>0.2945010634718357</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.3181293832334949</v>
+        <v>0.3170949886254413</v>
       </c>
     </row>
     <row r="38">
@@ -6234,19 +6234,19 @@
         <v>17120</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>10146</v>
+        <v>10129</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>25957</v>
+        <v>25527</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.0254138557852604</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.01506062516481863</v>
+        <v>0.01503572288875738</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.03853126550520879</v>
+        <v>0.03789402357883315</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>29</v>
@@ -6255,19 +6255,19 @@
         <v>30995</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>22028</v>
+        <v>21596</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>43656</v>
+        <v>43652</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.04618499494129188</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.03282294564705033</v>
+        <v>0.03217876075123256</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.06505073308606814</v>
+        <v>0.06504372579724943</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>47</v>
@@ -6276,19 +6276,19 @@
         <v>48115</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>35518</v>
+        <v>35370</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>62342</v>
+        <v>62213</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.03577980198337645</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.02641212444311592</v>
+        <v>0.02630176004700691</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.04635877171697862</v>
+        <v>0.04626266569185966</v>
       </c>
     </row>
     <row r="5">
@@ -6305,19 +6305,19 @@
         <v>26036</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>17094</v>
+        <v>17850</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>37945</v>
+        <v>38430</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.03864918013570113</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.02537554722992085</v>
+        <v>0.02649781410678066</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.05632727908005904</v>
+        <v>0.05704640538220997</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>42</v>
@@ -6326,19 +6326,19 @@
         <v>46913</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>34247</v>
+        <v>34749</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>60277</v>
+        <v>63169</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.06990297077850779</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.05103012803258646</v>
+        <v>0.05177838737939794</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.08981619186992285</v>
+        <v>0.09412535995091569</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>68</v>
@@ -6347,19 +6347,19 @@
         <v>72949</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>57953</v>
+        <v>57726</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>90728</v>
+        <v>92034</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.05424654866984056</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.04309526980716112</v>
+        <v>0.04292659835619114</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.06746750267743465</v>
+        <v>0.06843877793362664</v>
       </c>
     </row>
     <row r="6">
@@ -6376,19 +6376,19 @@
         <v>94015</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>77396</v>
+        <v>78298</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>112871</v>
+        <v>113268</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.1395593249793441</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.1148898977764162</v>
+        <v>0.1162292775001822</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.1675496933096995</v>
+        <v>0.1681394631757172</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>101</v>
@@ -6397,19 +6397,19 @@
         <v>103337</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>85149</v>
+        <v>85786</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>122306</v>
+        <v>123673</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.1539783166222099</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.12687779119559</v>
+        <v>0.1278268435601314</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.1822434187779844</v>
+        <v>0.1842803776040655</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>194</v>
@@ -6418,19 +6418,19 @@
         <v>197352</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>173100</v>
+        <v>172206</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>225015</v>
+        <v>224164</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.1467551985652004</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.1287210216459826</v>
+        <v>0.1280562273002877</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.167326468139599</v>
+        <v>0.1666937731002571</v>
       </c>
     </row>
     <row r="7">
@@ -6447,19 +6447,19 @@
         <v>129104</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>109765</v>
+        <v>109706</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>149820</v>
+        <v>150891</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1916466749799705</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1629399437850367</v>
+        <v>0.1628520702778782</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.2223988616457705</v>
+        <v>0.2239894394247723</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>133</v>
@@ -6468,19 +6468,19 @@
         <v>134600</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>116410</v>
+        <v>115947</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>156658</v>
+        <v>155580</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.2005627106721447</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.1734584571822484</v>
+        <v>0.1727679879377414</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.233430295710838</v>
+        <v>0.2318240010967066</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>262</v>
@@ -6489,19 +6489,19 @@
         <v>263704</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>235618</v>
+        <v>234744</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>297994</v>
+        <v>294441</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.196096269467364</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1752112609662274</v>
+        <v>0.174561434180504</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.2215949605301909</v>
+        <v>0.2189534043712925</v>
       </c>
     </row>
     <row r="8">
@@ -6518,19 +6518,19 @@
         <v>184577</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>161252</v>
+        <v>161378</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>207409</v>
+        <v>207442</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.2739942516899299</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.2393694389928744</v>
+        <v>0.2395561918826304</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.3078865047124179</v>
+        <v>0.3079358318805827</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>174</v>
@@ -6539,19 +6539,19 @@
         <v>172494</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>151760</v>
+        <v>151963</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>195814</v>
+        <v>195178</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.2570266973145695</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.2261313404979758</v>
+        <v>0.2264338989196956</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.2917747639200189</v>
+        <v>0.2908268206485016</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>349</v>
@@ -6560,19 +6560,19 @@
         <v>357071</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>328709</v>
+        <v>325727</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>393189</v>
+        <v>390769</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.2655265044735948</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.24443565551749</v>
+        <v>0.2422184652071775</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.2923844252526441</v>
+        <v>0.2905848548084137</v>
       </c>
     </row>
     <row r="9">
@@ -6589,19 +6589,19 @@
         <v>222802</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>198529</v>
+        <v>198932</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>248350</v>
+        <v>247386</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.330736712429794</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.2947049463532292</v>
+        <v>0.2953031711877273</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.368660728768476</v>
+        <v>0.3672300242029482</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>185</v>
@@ -6610,19 +6610,19 @@
         <v>182774</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>161253</v>
+        <v>161505</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>208243</v>
+        <v>205868</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.2723443096712763</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.2402763423226347</v>
+        <v>0.2406529518100206</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.310294459029588</v>
+        <v>0.3067563421138323</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>395</v>
@@ -6631,19 +6631,19 @@
         <v>405576</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>370439</v>
+        <v>370983</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>440265</v>
+        <v>441870</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.3015956768406239</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.2754670189543725</v>
+        <v>0.2758715171655073</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.32739109365997</v>
+        <v>0.3285847281277922</v>
       </c>
     </row>
     <row r="10">
@@ -6735,19 +6735,19 @@
         <v>12425</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>6988</v>
+        <v>6586</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>21001</v>
+        <v>21433</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.01216406470582248</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.006840880606996978</v>
+        <v>0.006447604522687949</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.02055977333744067</v>
+        <v>0.02098314631482126</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>22</v>
@@ -6756,19 +6756,19 @@
         <v>23636</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>15820</v>
+        <v>14789</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>36254</v>
+        <v>34293</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.02266309336816071</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.01516920468648689</v>
+        <v>0.01418085715557086</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.0347625517010953</v>
+        <v>0.03288214868396117</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>34</v>
@@ -6777,19 +6777,19 @@
         <v>36061</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>25319</v>
+        <v>24549</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>49999</v>
+        <v>49980</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.01746817309369499</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.01226478810634958</v>
+        <v>0.0118916126492252</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.02422005914511118</v>
+        <v>0.02421075750177287</v>
       </c>
     </row>
     <row r="12">
@@ -6806,19 +6806,19 @@
         <v>34626</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>23715</v>
+        <v>24030</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>48134</v>
+        <v>46683</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.03389898094977412</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.02321758742240688</v>
+        <v>0.0235257668948548</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.04712358442814514</v>
+        <v>0.0457029482321403</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>48</v>
@@ -6827,19 +6827,19 @@
         <v>56936</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>43174</v>
+        <v>42824</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>73578</v>
+        <v>73372</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.05459364718124382</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.04139715025891699</v>
+        <v>0.0410622735182162</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.07055008222080815</v>
+        <v>0.07035309180633048</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>81</v>
@@ -6848,19 +6848,19 @@
         <v>91562</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>72320</v>
+        <v>72499</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>112521</v>
+        <v>111328</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.04435392457101712</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.03503287963660503</v>
+        <v>0.035119518135369</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.05450675758032597</v>
+        <v>0.0539285257640506</v>
       </c>
     </row>
     <row r="13">
@@ -6877,19 +6877,19 @@
         <v>114373</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>95143</v>
+        <v>95208</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>133796</v>
+        <v>133030</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1119721543561079</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.09314555320158205</v>
+        <v>0.09320951217220609</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1309866877491732</v>
+        <v>0.1302368413662914</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>166</v>
@@ -6898,19 +6898,19 @@
         <v>179355</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>155160</v>
+        <v>154060</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>206727</v>
+        <v>206142</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1719752284667522</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1487752421186039</v>
+        <v>0.1477208790516299</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1982210627576232</v>
+        <v>0.1976597245622713</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>280</v>
@@ -6919,19 +6919,19 @@
         <v>293728</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>262493</v>
+        <v>261966</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>324946</v>
+        <v>328403</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.1422857022969823</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.127154860698169</v>
+        <v>0.1268993733297769</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1574078793181509</v>
+        <v>0.1590825758756856</v>
       </c>
     </row>
     <row r="14">
@@ -6948,19 +6948,19 @@
         <v>225324</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>195923</v>
+        <v>200657</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>253729</v>
+        <v>253444</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.220593447621023</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.1918101015407226</v>
+        <v>0.1964443296587919</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.2484023157029541</v>
+        <v>0.2481232596021545</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>203</v>
@@ -6969,19 +6969,19 @@
         <v>220140</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>195931</v>
+        <v>192797</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>250656</v>
+        <v>247445</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.2110816306991045</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.1878686474449309</v>
+        <v>0.1848636227106578</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.240342086853067</v>
+        <v>0.2372631195154658</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>412</v>
@@ -6990,19 +6990,19 @@
         <v>445464</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>408301</v>
+        <v>406327</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>485381</v>
+        <v>487783</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.2157880785205047</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.1977859531311248</v>
+        <v>0.1968297205163578</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.2351244677698046</v>
+        <v>0.2362883030233333</v>
       </c>
     </row>
     <row r="15">
@@ -7019,19 +7019,19 @@
         <v>273004</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>248239</v>
+        <v>243006</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>305122</v>
+        <v>300682</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.2672730611197779</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.2430270869397144</v>
+        <v>0.2379043268425625</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.2987164262836944</v>
+        <v>0.294369342618758</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>236</v>
@@ -7040,19 +7040,19 @@
         <v>243244</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>217116</v>
+        <v>219232</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>271686</v>
+        <v>271111</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.2332354665701337</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.2081823572797847</v>
+        <v>0.2102108074315912</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.2605065334983869</v>
+        <v>0.2599555933701626</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>490</v>
@@ -7061,19 +7061,19 @@
         <v>516249</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>474395</v>
+        <v>473969</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>556949</v>
+        <v>558403</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.2500772712462446</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.2298027552147816</v>
+        <v>0.2295964686705324</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.2697930706989174</v>
+        <v>0.2704971488500818</v>
       </c>
     </row>
     <row r="16">
@@ -7090,19 +7090,19 @@
         <v>361692</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>328702</v>
+        <v>330689</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>396005</v>
+        <v>392893</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.3540982912474946</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.3218017002615912</v>
+        <v>0.3237468718943193</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.3876912243167439</v>
+        <v>0.3846448849901735</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>302</v>
@@ -7111,19 +7111,19 @@
         <v>319602</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>291673</v>
+        <v>292536</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>354411</v>
+        <v>353349</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.3064509337146051</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.2796715696020178</v>
+        <v>0.2804994141213693</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.3398281885977512</v>
+        <v>0.3388098442884855</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>630</v>
@@ -7132,19 +7132,19 @@
         <v>681293</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>633438</v>
+        <v>636091</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>720198</v>
+        <v>723845</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.3300268502715563</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.3068453890077955</v>
+        <v>0.308130286673862</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.3488727334312386</v>
+        <v>0.3506394086395334</v>
       </c>
     </row>
     <row r="17">
@@ -7236,19 +7236,19 @@
         <v>12134</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>6519</v>
+        <v>6448</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>20757</v>
+        <v>22866</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.01599583916742349</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.00859353735832055</v>
+        <v>0.008499912090372449</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.02736186597109287</v>
+        <v>0.03014242435592936</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>24</v>
@@ -7257,19 +7257,19 @@
         <v>28430</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>18668</v>
+        <v>19311</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>41436</v>
+        <v>43022</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.03637425785765187</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.02388530211004566</v>
+        <v>0.02470804259093513</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.05301555234543455</v>
+        <v>0.05504428239538259</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>35</v>
@@ -7278,19 +7278,19 @@
         <v>40564</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>29575</v>
+        <v>29237</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>56616</v>
+        <v>55950</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.02633711047096807</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.01920219361570908</v>
+        <v>0.01898261939752283</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.0367594139392485</v>
+        <v>0.03632671536182114</v>
       </c>
     </row>
     <row r="19">
@@ -7307,19 +7307,19 @@
         <v>22248</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>14236</v>
+        <v>14401</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>33546</v>
+        <v>31656</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.02932750333915171</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.01876548201852398</v>
+        <v>0.01898317583778918</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.04422107527143851</v>
+        <v>0.04172948366783959</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>43</v>
@@ -7328,19 +7328,19 @@
         <v>49778</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>37499</v>
+        <v>36012</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>65516</v>
+        <v>65667</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.06368827455639678</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.04797782622261045</v>
+        <v>0.04607610905287809</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.08382499470945909</v>
+        <v>0.0840175624658183</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>65</v>
@@ -7349,19 +7349,19 @@
         <v>72026</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>56241</v>
+        <v>55422</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>89983</v>
+        <v>90433</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.04676428598445789</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.03651569153648877</v>
+        <v>0.03598368925001826</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.05842343036407007</v>
+        <v>0.0587156879656506</v>
       </c>
     </row>
     <row r="20">
@@ -7378,19 +7378,19 @@
         <v>92599</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>77003</v>
+        <v>75925</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>114959</v>
+        <v>112046</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.1220655817989342</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.1015071385605519</v>
+        <v>0.1000861480384265</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.1515402477343767</v>
+        <v>0.1477008728452294</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>100</v>
@@ -7399,19 +7399,19 @@
         <v>107286</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>87354</v>
+        <v>88135</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>127978</v>
+        <v>128087</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.137266450789343</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.1117644793227673</v>
+        <v>0.1127647576392968</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.1637417005327928</v>
+        <v>0.1638808178478709</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>187</v>
@@ -7420,19 +7420,19 @@
         <v>199885</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>174039</v>
+        <v>175495</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>229769</v>
+        <v>228115</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.1297794438345019</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.1129986926152702</v>
+        <v>0.1139441000049623</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.1491823095447529</v>
+        <v>0.1481086128239879</v>
       </c>
     </row>
     <row r="21">
@@ -7449,19 +7449,19 @@
         <v>105823</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>87794</v>
+        <v>88149</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>129446</v>
+        <v>127757</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.1394971719494303</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.1157311850609164</v>
+        <v>0.1161992973175808</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.1706375663102774</v>
+        <v>0.1684114937288659</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>90</v>
@@ -7470,19 +7470,19 @@
         <v>96666</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>78902</v>
+        <v>77144</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>116631</v>
+        <v>115872</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.1236787492334949</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.1009511860110658</v>
+        <v>0.09870165456434581</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.149223841613936</v>
+        <v>0.1482521446517127</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>188</v>
@@ -7491,19 +7491,19 @@
         <v>202488</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>176239</v>
+        <v>174427</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>229679</v>
+        <v>228262</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.1314699249198029</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.1144271885766427</v>
+        <v>0.1132502600204773</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.149124246825433</v>
+        <v>0.1482038283872465</v>
       </c>
     </row>
     <row r="22">
@@ -7520,19 +7520,19 @@
         <v>195969</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>170844</v>
+        <v>172677</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>222916</v>
+        <v>221116</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.2583291899788122</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.2252088444237319</v>
+        <v>0.2276258640550268</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.2938514739393374</v>
+        <v>0.2914789815995783</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>199</v>
@@ -7541,19 +7541,19 @@
         <v>210583</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>188124</v>
+        <v>186619</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>239109</v>
+        <v>236524</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.2694299334002501</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.2406958076618038</v>
+        <v>0.2387696832197369</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.3059283692641617</v>
+        <v>0.3026204397928234</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>374</v>
@@ -7562,19 +7562,19 @@
         <v>406551</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>370813</v>
+        <v>375625</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>444838</v>
+        <v>445125</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.2639623944554271</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.2407585003298021</v>
+        <v>0.2438828502691872</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.2888208162117498</v>
+        <v>0.289006901665407</v>
       </c>
     </row>
     <row r="23">
@@ -7591,19 +7591,19 @@
         <v>329828</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>300463</v>
+        <v>302038</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>358040</v>
+        <v>355424</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.4347847137662482</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.3960748746266121</v>
+        <v>0.3981512958487469</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.471973794916318</v>
+        <v>0.4685257594154912</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>277</v>
@@ -7612,19 +7612,19 @@
         <v>288845</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>261404</v>
+        <v>261486</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>314777</v>
+        <v>315433</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.3695623341628634</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.3344538192609039</v>
+        <v>0.3345588083860012</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.4027410281326444</v>
+        <v>0.4035803561747909</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>579</v>
@@ -7633,19 +7633,19 @@
         <v>618673</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>576848</v>
+        <v>577895</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>656484</v>
+        <v>657512</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.4016868403348423</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.3745312580862758</v>
+        <v>0.3752112476783606</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.4262364746163505</v>
+        <v>0.4269039731181311</v>
       </c>
     </row>
     <row r="24">
@@ -7737,19 +7737,19 @@
         <v>18787</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>11421</v>
+        <v>11604</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>29320</v>
+        <v>29056</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.02006042680006113</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.01219488371842215</v>
+        <v>0.01238975257332451</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.03130646823278633</v>
+        <v>0.03102450430227766</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>22</v>
@@ -7758,19 +7758,19 @@
         <v>25977</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>15831</v>
+        <v>16889</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>37837</v>
+        <v>40288</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.02491293541003918</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.01518290025647297</v>
+        <v>0.01619728333792235</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.03628709236239474</v>
+        <v>0.03863818192292396</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>40</v>
@@ -7779,19 +7779,19 @@
         <v>44764</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>33070</v>
+        <v>32029</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>59442</v>
+        <v>61673</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.02261682605879574</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.01670845907815831</v>
+        <v>0.01618231388548064</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.03003281422159327</v>
+        <v>0.0311598310984915</v>
       </c>
     </row>
     <row r="26">
@@ -7808,19 +7808,19 @@
         <v>23371</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>15047</v>
+        <v>14525</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>35186</v>
+        <v>35681</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.02495490374471838</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.0160669181107081</v>
+        <v>0.01550939201721788</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.03757012102543218</v>
+        <v>0.03809918619182277</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>47</v>
@@ -7829,19 +7829,19 @@
         <v>55956</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>42305</v>
+        <v>41106</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>72788</v>
+        <v>72721</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.05366371747845588</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.04057221279261405</v>
+        <v>0.03942194611112329</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.0698070149340828</v>
+        <v>0.0697427934300965</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>69</v>
@@ -7850,19 +7850,19 @@
         <v>79327</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>62589</v>
+        <v>61926</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>98649</v>
+        <v>100530</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.04007928497655477</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.0316225244594863</v>
+        <v>0.03128759894290412</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.0498413748977674</v>
+        <v>0.05079206162073985</v>
       </c>
     </row>
     <row r="27">
@@ -7879,19 +7879,19 @@
         <v>123966</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>105345</v>
+        <v>104060</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>145236</v>
+        <v>144980</v>
       </c>
       <c r="G27" s="6" t="n">
         <v>0.1323652983111602</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.1124829682338413</v>
+        <v>0.1111111421956655</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.1550767345744745</v>
+        <v>0.1548038172323165</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>163</v>
@@ -7900,19 +7900,19 @@
         <v>187255</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>161103</v>
+        <v>163254</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>212247</v>
+        <v>214392</v>
       </c>
       <c r="N27" s="6" t="n">
         <v>0.1795852251299822</v>
       </c>
       <c r="O27" s="6" t="n">
-        <v>0.1545039932753457</v>
+        <v>0.1565674499003854</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.2035529710799568</v>
+        <v>0.2056110097208408</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>291</v>
@@ -7921,19 +7921,19 @@
         <v>311221</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>280707</v>
+        <v>277329</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>345256</v>
+        <v>342393</v>
       </c>
       <c r="U27" s="6" t="n">
         <v>0.1572417067051445</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.1418246890265419</v>
+        <v>0.1401181699046618</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.1744377485444621</v>
+        <v>0.1729913082256352</v>
       </c>
     </row>
     <row r="28">
@@ -7950,19 +7950,19 @@
         <v>216324</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>191564</v>
+        <v>191117</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>242385</v>
+        <v>241836</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.2309813801515791</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.2045437132109325</v>
+        <v>0.2040669215348751</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.2588082442688516</v>
+        <v>0.2582230562644975</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>230</v>
@@ -7971,19 +7971,19 @@
         <v>244427</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>215745</v>
+        <v>217907</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>271020</v>
+        <v>275439</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.2344149248166613</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.2069077491412955</v>
+        <v>0.208981171850074</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.2599194180019229</v>
+        <v>0.2641572939280052</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>450</v>
@@ -7992,19 +7992,19 @@
         <v>460750</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>425595</v>
+        <v>425518</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>501618</v>
+        <v>500343</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.2327902406281168</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.2150283357592056</v>
+        <v>0.214989487440424</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.2534385724771828</v>
+        <v>0.252794476654513</v>
       </c>
     </row>
     <row r="29">
@@ -8021,19 +8021,19 @@
         <v>303048</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>274234</v>
+        <v>273805</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>331847</v>
+        <v>330581</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.3235823943989614</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.2928154936578207</v>
+        <v>0.2923577275962861</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.3543322031350731</v>
+        <v>0.3529803440339129</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>296</v>
@@ -8042,19 +8042,19 @@
         <v>318428</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>289450</v>
+        <v>286513</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>349019</v>
+        <v>349301</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.3053853698028987</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.2775942304074393</v>
+        <v>0.2747771967130522</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.3347235463001907</v>
+        <v>0.3349940700582135</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>595</v>
@@ -8063,19 +8063,19 @@
         <v>621476</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>577661</v>
+        <v>580927</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>663405</v>
+        <v>660361</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.31399583537815</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.2918583765235476</v>
+        <v>0.2935084161642875</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.3351799183447997</v>
+        <v>0.333642002386077</v>
       </c>
     </row>
     <row r="30">
@@ -8092,19 +8092,19 @@
         <v>251045</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>226648</v>
+        <v>222993</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>280334</v>
+        <v>278057</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.2680555965935197</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.2420049228059893</v>
+        <v>0.2381031845413756</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.2993294730589739</v>
+        <v>0.2968973256075382</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>200</v>
@@ -8113,19 +8113,19 @@
         <v>210667</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>185995</v>
+        <v>182493</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>238577</v>
+        <v>235694</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.2020378273619628</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.178376318720936</v>
+        <v>0.1750179477217755</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.2288049697731338</v>
+        <v>0.2260398281004248</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>444</v>
@@ -8134,19 +8134,19 @@
         <v>461712</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>421910</v>
+        <v>425240</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>497144</v>
+        <v>501127</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.2332761062532382</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.2131666357346833</v>
+        <v>0.2148491781165836</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.2511777831702682</v>
+        <v>0.2531905777512043</v>
       </c>
     </row>
     <row r="31">
@@ -8238,19 +8238,19 @@
         <v>60467</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>46355</v>
+        <v>46033</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>77327</v>
+        <v>76937</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.01783558966589261</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.01367300952673303</v>
+        <v>0.01357821521407275</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.0228085906007897</v>
+        <v>0.02269353935303057</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>97</v>
@@ -8259,19 +8259,19 @@
         <v>109038</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>89863</v>
+        <v>88706</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>133169</v>
+        <v>132020</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.03081618168962947</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.02539713095845208</v>
+        <v>0.02507005690961104</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.03763633789094487</v>
+        <v>0.0373113673049226</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>156</v>
@@ -8280,19 +8280,19 @@
         <v>169504</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>145567</v>
+        <v>144097</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>198876</v>
+        <v>198220</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.02446459988133929</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.02100970302201387</v>
+        <v>0.0207975292974405</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.02870372194412048</v>
+        <v>0.02860907692473381</v>
       </c>
     </row>
     <row r="33">
@@ -8309,19 +8309,19 @@
         <v>106281</v>
       </c>
       <c r="E33" s="5" t="n">
-        <v>87352</v>
+        <v>85169</v>
       </c>
       <c r="F33" s="5" t="n">
-        <v>130057</v>
+        <v>127440</v>
       </c>
       <c r="G33" s="6" t="n">
         <v>0.0313491809864178</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>0.0257658636429461</v>
+        <v>0.0251217507126262</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>0.03836203711578447</v>
+        <v>0.03759030461541201</v>
       </c>
       <c r="J33" s="5" t="n">
         <v>180</v>
@@ -8330,19 +8330,19 @@
         <v>209583</v>
       </c>
       <c r="L33" s="5" t="n">
-        <v>181758</v>
+        <v>181904</v>
       </c>
       <c r="M33" s="5" t="n">
-        <v>241757</v>
+        <v>240688</v>
       </c>
       <c r="N33" s="6" t="n">
         <v>0.05923225323627641</v>
       </c>
       <c r="O33" s="6" t="n">
-        <v>0.05136833065341091</v>
+        <v>0.05140967606461769</v>
       </c>
       <c r="P33" s="6" t="n">
-        <v>0.06832545384847373</v>
+        <v>0.06802328263434425</v>
       </c>
       <c r="Q33" s="5" t="n">
         <v>283</v>
@@ -8351,19 +8351,19 @@
         <v>315864</v>
       </c>
       <c r="S33" s="5" t="n">
-        <v>280510</v>
+        <v>278495</v>
       </c>
       <c r="T33" s="5" t="n">
-        <v>350753</v>
+        <v>352982</v>
       </c>
       <c r="U33" s="6" t="n">
         <v>0.04558868334843252</v>
       </c>
       <c r="V33" s="6" t="n">
-        <v>0.04048598301419896</v>
+        <v>0.04019514150003928</v>
       </c>
       <c r="W33" s="6" t="n">
-        <v>0.05062428043443871</v>
+        <v>0.05094588450246511</v>
       </c>
     </row>
     <row r="34">
@@ -8380,19 +8380,19 @@
         <v>424953</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>386818</v>
+        <v>382309</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>460865</v>
+        <v>462865</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.1253458714945539</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.1140975216472262</v>
+        <v>0.1127675335634018</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.1359386709488889</v>
+        <v>0.1365286833515246</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>530</v>
@@ -8401,19 +8401,19 @@
         <v>577233</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>533079</v>
+        <v>527058</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>624460</v>
+        <v>621420</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.1631374611265848</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.1506587321862197</v>
+        <v>0.1489570738537121</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.1764847102662064</v>
+        <v>0.1756254853636522</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>952</v>
@@ -8422,19 +8422,19 @@
         <v>1002185</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>943138</v>
+        <v>944995</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>1066995</v>
+        <v>1059893</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.1446455177102726</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.1361231584527737</v>
+        <v>0.1363912725322116</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.1539994754582484</v>
+        <v>0.1529744277466427</v>
       </c>
     </row>
     <row r="35">
@@ -8451,19 +8451,19 @@
         <v>676574</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>629719</v>
+        <v>633429</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>726611</v>
+        <v>723786</v>
       </c>
       <c r="G35" s="6" t="n">
         <v>0.1995651179124716</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>0.1857446964360586</v>
+        <v>0.1868389203562329</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.2143242079378027</v>
+        <v>0.213491178701546</v>
       </c>
       <c r="J35" s="5" t="n">
         <v>656</v>
@@ -8472,19 +8472,19 @@
         <v>695832</v>
       </c>
       <c r="L35" s="5" t="n">
-        <v>652472</v>
+        <v>644083</v>
       </c>
       <c r="M35" s="5" t="n">
-        <v>745686</v>
+        <v>746832</v>
       </c>
       <c r="N35" s="6" t="n">
         <v>0.1966560174354174</v>
       </c>
       <c r="O35" s="6" t="n">
-        <v>0.1844013981196242</v>
+        <v>0.1820305661791271</v>
       </c>
       <c r="P35" s="6" t="n">
-        <v>0.2107456327842531</v>
+        <v>0.2110696329951351</v>
       </c>
       <c r="Q35" s="5" t="n">
         <v>1312</v>
@@ -8493,19 +8493,19 @@
         <v>1372406</v>
       </c>
       <c r="S35" s="5" t="n">
-        <v>1307067</v>
+        <v>1300883</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>1434218</v>
+        <v>1437010</v>
       </c>
       <c r="U35" s="6" t="n">
         <v>0.1980794802200699</v>
       </c>
       <c r="V35" s="6" t="n">
-        <v>0.188649078700395</v>
+        <v>0.187756564152123</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.2070008443415678</v>
+        <v>0.2074037438093743</v>
       </c>
     </row>
     <row r="36">
@@ -8522,19 +8522,19 @@
         <v>956599</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>903694</v>
+        <v>906700</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>1011300</v>
+        <v>1010164</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.2821625508338731</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.2665576466009741</v>
+        <v>0.267444234094206</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.2982974465067619</v>
+        <v>0.2979624217669258</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>905</v>
@@ -8543,19 +8543,19 @@
         <v>944749</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>892665</v>
+        <v>890762</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>996400</v>
+        <v>996554</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.2670048854441855</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.2522848536947406</v>
+        <v>0.2517469317633824</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.2816024312386301</v>
+        <v>0.2816459619904076</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>1808</v>
@@ -8564,19 +8564,19 @@
         <v>1901348</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>1832581</v>
+        <v>1829127</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>1985951</v>
+        <v>1977647</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.2744217391261468</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.2644965299187959</v>
+        <v>0.2639980667340492</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.2866324249085602</v>
+        <v>0.2854340374958421</v>
       </c>
     </row>
     <row r="37">
@@ -8593,19 +8593,19 @@
         <v>1165367</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>1110081</v>
+        <v>1109370</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>1220257</v>
+        <v>1225438</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.343741689106791</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.3274344402724563</v>
+        <v>0.3272245788735814</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.3599323039919806</v>
+        <v>0.3614606110730004</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>964</v>
@@ -8614,19 +8614,19 @@
         <v>1001887</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>951261</v>
+        <v>946960</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>1061967</v>
+        <v>1056601</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.2831532010679065</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.2688450986215579</v>
+        <v>0.2676295891575056</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.3001329851458946</v>
+        <v>0.2986164164058456</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>2048</v>
@@ -8635,19 +8635,19 @@
         <v>2167254</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>2096085</v>
+        <v>2086864</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>2245870</v>
+        <v>2246429</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.312799979713739</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.3025281302234321</v>
+        <v>0.3011972629358531</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.3241466975661581</v>
+        <v>0.3242273431327407</v>
       </c>
     </row>
     <row r="38">
@@ -8979,19 +8979,19 @@
         <v>16509</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>10233</v>
+        <v>9839</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>26977</v>
+        <v>26514</v>
       </c>
       <c r="G4" s="6" t="n">
-        <v>0.02390118387910576</v>
+        <v>0.02390118387910575</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.01481574163661549</v>
+        <v>0.01424540824442971</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.03905751955778279</v>
+        <v>0.03838708804427233</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>64</v>
@@ -9000,19 +9000,19 @@
         <v>26475</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>19980</v>
+        <v>20020</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>33882</v>
+        <v>33574</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.03611257734446274</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.02725351204332802</v>
+        <v>0.02730790365754968</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.04621671790109707</v>
+        <v>0.04579602005432769</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>86</v>
@@ -9021,19 +9021,19 @@
         <v>42983</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>33418</v>
+        <v>33928</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>54035</v>
+        <v>55848</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.03018871760813752</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.02347053620342777</v>
+        <v>0.02382872723462165</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.0379504279333342</v>
+        <v>0.03922398090321054</v>
       </c>
     </row>
     <row r="5">
@@ -9050,19 +9050,19 @@
         <v>40080</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>29192</v>
+        <v>29262</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>53031</v>
+        <v>54030</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.05802741225941507</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.04226326923579696</v>
+        <v>0.04236547855642048</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.07677786799341953</v>
+        <v>0.07822451127370728</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>74</v>
@@ -9071,19 +9071,19 @@
         <v>37272</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>29047</v>
+        <v>29867</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>46676</v>
+        <v>47871</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.05084105558195529</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.03962096029842761</v>
+        <v>0.04074020799692732</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.06366784125477286</v>
+        <v>0.06529815051982805</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>119</v>
@@ -9092,19 +9092,19 @@
         <v>77352</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>63208</v>
+        <v>62958</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>94985</v>
+        <v>93843</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.05432722356870041</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.04439346873922684</v>
+        <v>0.04421766005420062</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.06671096245358175</v>
+        <v>0.06590918685726455</v>
       </c>
     </row>
     <row r="6">
@@ -9121,19 +9121,19 @@
         <v>100107</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>84524</v>
+        <v>83863</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>120569</v>
+        <v>119481</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.1449333114764067</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.1223726145299135</v>
+        <v>0.1214149560657149</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.1745587231580151</v>
+        <v>0.1729833211595156</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>260</v>
@@ -9142,19 +9142,19 @@
         <v>132314</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>116234</v>
+        <v>116854</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>149214</v>
+        <v>148517</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.1804822977503125</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.1585484511879203</v>
+        <v>0.1593937985550682</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.2035343542207041</v>
+        <v>0.2025836239257642</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>393</v>
@@ -9163,19 +9163,19 @@
         <v>232421</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>210366</v>
+        <v>209847</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>259457</v>
+        <v>258514</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.1632371562312392</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.1477475117415629</v>
+        <v>0.1473824562689729</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.1822253702313026</v>
+        <v>0.181563321856879</v>
       </c>
     </row>
     <row r="7">
@@ -9192,19 +9192,19 @@
         <v>98351</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>81124</v>
+        <v>82258</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>117214</v>
+        <v>118842</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.14239085655322</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1174501002063191</v>
+        <v>0.1190919487713261</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.169700315057784</v>
+        <v>0.1720571980246291</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>203</v>
@@ -9213,19 +9213,19 @@
         <v>110825</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>96270</v>
+        <v>96592</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>127032</v>
+        <v>128250</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.1511709779822098</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.1313172355532709</v>
+        <v>0.1317557159405035</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.1732778677592852</v>
+        <v>0.1749393032081758</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>319</v>
@@ -9234,19 +9234,19 @@
         <v>209176</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>187029</v>
+        <v>185100</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>235051</v>
+        <v>233776</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.146911659996855</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1313569123301526</v>
+        <v>0.1300021637073253</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.1650841920488034</v>
+        <v>0.1641890787763308</v>
       </c>
     </row>
     <row r="8">
@@ -9263,19 +9263,19 @@
         <v>155661</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>133745</v>
+        <v>133969</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>180781</v>
+        <v>179159</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.2253641563142898</v>
+        <v>0.2253641563142899</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.1936344541147008</v>
+        <v>0.1939585312231217</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.2617320100299242</v>
+        <v>0.2593833522787222</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>311</v>
@@ -9284,19 +9284,19 @@
         <v>191253</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>172552</v>
+        <v>169736</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>210406</v>
+        <v>211055</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.2608781116846228</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.2353683543620765</v>
+        <v>0.231527450859848</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.2870030088417451</v>
+        <v>0.2878885732234779</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>476</v>
@@ -9305,19 +9305,19 @@
         <v>346914</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>316439</v>
+        <v>317059</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>378960</v>
+        <v>377224</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.243649963980366</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.2222461838489625</v>
+        <v>0.2226815026384536</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.2661563792956884</v>
+        <v>0.2649372066645953</v>
       </c>
     </row>
     <row r="9">
@@ -9334,19 +9334,19 @@
         <v>280002</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>251997</v>
+        <v>253650</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>309618</v>
+        <v>311937</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.4053830795175627</v>
+        <v>0.4053830795175626</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.3648382755345941</v>
+        <v>0.3672310735951284</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.4482603900814091</v>
+        <v>0.4516172426764491</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>327</v>
@@ -9355,19 +9355,19 @@
         <v>234974</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>214271</v>
+        <v>213152</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>257383</v>
+        <v>257419</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.3205149796564369</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.2922749222801178</v>
+        <v>0.2907497706888046</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.351081868644316</v>
+        <v>0.3511319721939596</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>576</v>
@@ -9376,19 +9376,19 @@
         <v>514976</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>478450</v>
+        <v>482148</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>549202</v>
+        <v>551706</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.361685278614702</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.3360319557178109</v>
+        <v>0.3386294308591573</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.3857236685427167</v>
+        <v>0.3874818173223763</v>
       </c>
     </row>
     <row r="10">
@@ -9480,19 +9480,19 @@
         <v>15978</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>9615</v>
+        <v>9947</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>26079</v>
+        <v>25308</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.01524751033200899</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.009175632595837521</v>
+        <v>0.00949160828162577</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.02488611467765442</v>
+        <v>0.02415082396479718</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>47</v>
@@ -9501,19 +9501,19 @@
         <v>26946</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>19616</v>
+        <v>20040</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>35052</v>
+        <v>36692</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>0.02520068193675441</v>
+        <v>0.02520068193675442</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.01834523128723641</v>
+        <v>0.01874222646836053</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.03278115955044492</v>
+        <v>0.0343147458544711</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>67</v>
@@ -9522,19 +9522,19 @@
         <v>42925</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>31939</v>
+        <v>33299</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>52693</v>
+        <v>54564</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.02027425628553055</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.01508531203957655</v>
+        <v>0.01572794927362486</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.02488793157399318</v>
+        <v>0.02577176774434895</v>
       </c>
     </row>
     <row r="12">
@@ -9551,19 +9551,19 @@
         <v>40207</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>27185</v>
+        <v>27588</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>56255</v>
+        <v>55981</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>0.03836804973688621</v>
+        <v>0.0383680497368862</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.02594172121067751</v>
+        <v>0.02632625133103967</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.05368191789569249</v>
+        <v>0.05342104242599093</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>88</v>
@@ -9572,19 +9572,19 @@
         <v>55801</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>43920</v>
+        <v>44482</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>70860</v>
+        <v>70987</v>
       </c>
       <c r="N12" s="6" t="n">
-        <v>0.05218598178039068</v>
+        <v>0.0521859817803907</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.041074466161114</v>
+        <v>0.04160015459963724</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.06626963732482688</v>
+        <v>0.06638849208433469</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>128</v>
@@ -9593,19 +9593,19 @@
         <v>96008</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>78335</v>
+        <v>79628</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>118283</v>
+        <v>116003</v>
       </c>
       <c r="U12" s="6" t="n">
-        <v>0.04534665281377936</v>
+        <v>0.04534665281377937</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.03699932102170195</v>
+        <v>0.037610243563042</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.0558676662263998</v>
+        <v>0.05479103877968555</v>
       </c>
     </row>
     <row r="13">
@@ -9622,19 +9622,19 @@
         <v>102207</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>85842</v>
+        <v>85646</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>123109</v>
+        <v>125127</v>
       </c>
       <c r="G13" s="6" t="n">
-        <v>0.09753225955530453</v>
+        <v>0.09753225955530452</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.08191539843948284</v>
+        <v>0.08172907914332311</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1174780878315659</v>
+        <v>0.1194041292575121</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>283</v>
@@ -9643,19 +9643,19 @@
         <v>170391</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>151647</v>
+        <v>151099</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>191060</v>
+        <v>190269</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1593530753993298</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1418227637600754</v>
+        <v>0.1413103577690696</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1786828351776249</v>
+        <v>0.1779433348798211</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>405</v>
@@ -9664,19 +9664,19 @@
         <v>272598</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>245811</v>
+        <v>246412</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>300350</v>
+        <v>302100</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.1287542205771756</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1161020618415075</v>
+        <v>0.1163860333340199</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1418622151734054</v>
+        <v>0.1426883901462512</v>
       </c>
     </row>
     <row r="14">
@@ -9693,19 +9693,19 @@
         <v>175811</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>152402</v>
+        <v>150548</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>204245</v>
+        <v>202400</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.1677703949079777</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.1454318085633831</v>
+        <v>0.1436624874214922</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.1949038942326127</v>
+        <v>0.1931431339252005</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>281</v>
@@ -9714,19 +9714,19 @@
         <v>180006</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>161044</v>
+        <v>159879</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>199502</v>
+        <v>200767</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>0.1683450597424097</v>
+        <v>0.1683450597424098</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.1506109687740046</v>
+        <v>0.1495216812359275</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.1865779058316708</v>
+        <v>0.1877609119145805</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>452</v>
@@ -9735,19 +9735,19 @@
         <v>355818</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>324864</v>
+        <v>322627</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>391291</v>
+        <v>390691</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.1680606234146112</v>
+        <v>0.1680606234146113</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.1534406609733343</v>
+        <v>0.1523839953720967</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.1848152762990995</v>
+        <v>0.184531981752735</v>
       </c>
     </row>
     <row r="15">
@@ -9764,19 +9764,19 @@
         <v>269736</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>237899</v>
+        <v>242125</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>302346</v>
+        <v>303147</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.2573988773025099</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.2270182097991519</v>
+        <v>0.2310513863993996</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.288517950828263</v>
+        <v>0.2892821551242436</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>383</v>
@@ -9785,19 +9785,19 @@
         <v>271126</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>246502</v>
+        <v>246256</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>298068</v>
+        <v>294694</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.2535619518765277</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.2305335586178514</v>
+        <v>0.2303030158336871</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.278758949177275</v>
+        <v>0.2756031773768146</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>637</v>
@@ -9806,19 +9806,19 @@
         <v>540862</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>501493</v>
+        <v>503056</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>585709</v>
+        <v>581276</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.2554610779632697</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.2368664718634241</v>
+        <v>0.2376045414459773</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.2766434206175288</v>
+        <v>0.2745498606466226</v>
       </c>
     </row>
     <row r="16">
@@ -9835,19 +9835,19 @@
         <v>443990</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>407507</v>
+        <v>407774</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>478660</v>
+        <v>478270</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.4236829081653126</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.3888691670762017</v>
+        <v>0.3891237141572667</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.4567680291448705</v>
+        <v>0.4563950658582932</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>431</v>
@@ -9856,19 +9856,19 @@
         <v>364998</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>337091</v>
+        <v>335866</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>394005</v>
+        <v>394753</v>
       </c>
       <c r="N16" s="6" t="n">
-        <v>0.3413532492645875</v>
+        <v>0.3413532492645876</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.3152539532736147</v>
+        <v>0.3141084075274764</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.3684808709618347</v>
+        <v>0.3691806044065311</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>787</v>
@@ -9877,19 +9877,19 @@
         <v>808988</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>759920</v>
+        <v>759865</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>851677</v>
+        <v>855203</v>
       </c>
       <c r="U16" s="6" t="n">
-        <v>0.3821031689456333</v>
+        <v>0.3821031689456335</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.358927159015751</v>
+        <v>0.358901070475738</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.4022663136165848</v>
+        <v>0.4039317101941829</v>
       </c>
     </row>
     <row r="17">
@@ -9981,19 +9981,19 @@
         <v>15415</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>8668</v>
+        <v>8233</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>26290</v>
+        <v>25934</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.01919440270419862</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.01079297282368871</v>
+        <v>0.01025180874870916</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.03273634453093009</v>
+        <v>0.03229285753053482</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>45</v>
@@ -10002,19 +10002,19 @@
         <v>31118</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>22079</v>
+        <v>22124</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>44314</v>
+        <v>44376</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>0.03831094795868335</v>
+        <v>0.03831094795868336</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.0271827757606285</v>
+        <v>0.02723742543564648</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.05455640372646618</v>
+        <v>0.05463268116471306</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>59</v>
@@ -10023,19 +10023,19 @@
         <v>46533</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>33832</v>
+        <v>35025</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>62456</v>
+        <v>64096</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.02880702909216364</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.02094440838460125</v>
+        <v>0.02168306099028687</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.0386643409243344</v>
+        <v>0.03967970623658881</v>
       </c>
     </row>
     <row r="19">
@@ -10052,19 +10052,19 @@
         <v>36166</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>26089</v>
+        <v>25422</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>50402</v>
+        <v>50938</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.04503465171391779</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.032486235325087</v>
+        <v>0.03165542621684047</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.06276139307141752</v>
+        <v>0.06342910896170748</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>73</v>
@@ -10073,19 +10073,19 @@
         <v>51507</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>41234</v>
+        <v>40115</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>67194</v>
+        <v>66846</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.06341184580112712</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.05076498514381894</v>
+        <v>0.0493866088565629</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.08272427474821609</v>
+        <v>0.08229646530303673</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>110</v>
@@ -10094,19 +10094,19 @@
         <v>87673</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>71972</v>
+        <v>72193</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>106007</v>
+        <v>107869</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.05427550033315354</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.04455573733133418</v>
+        <v>0.04469255800950944</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.06562536700997754</v>
+        <v>0.06677813963122931</v>
       </c>
     </row>
     <row r="20">
@@ -10123,19 +10123,19 @@
         <v>89006</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>70784</v>
+        <v>72152</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>112499</v>
+        <v>111139</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.1108313185802415</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.08814176411736502</v>
+        <v>0.08984481271917444</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.1400856754546111</v>
+        <v>0.1383917917041801</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>202</v>
@@ -10144,19 +10144,19 @@
         <v>143946</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>125594</v>
+        <v>125799</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>165052</v>
+        <v>164657</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.1772163024420425</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.1546233194045735</v>
+        <v>0.1548756230218256</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.2032014694573599</v>
+        <v>0.2027151164797829</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>288</v>
@@ -10165,19 +10165,19 @@
         <v>232951</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>207719</v>
+        <v>206014</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>264196</v>
+        <v>261518</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.1442125618509038</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.1285923490134438</v>
+        <v>0.1275365986354021</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.1635551748205998</v>
+        <v>0.1618972640630163</v>
       </c>
     </row>
     <row r="21">
@@ -10194,19 +10194,19 @@
         <v>138552</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>115147</v>
+        <v>117795</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>164755</v>
+        <v>167920</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.1725270401650647</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.1433833309523619</v>
+        <v>0.1466798892263531</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.2051557058549277</v>
+        <v>0.2090966404690757</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>184</v>
@@ -10215,19 +10215,19 @@
         <v>139103</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>119743</v>
+        <v>119044</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>160378</v>
+        <v>158308</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.1712548833035625</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.1474191538769144</v>
+        <v>0.146558938762835</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.1974463704627003</v>
+        <v>0.1948982034437256</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>311</v>
@@ -10236,19 +10236,19 @@
         <v>277655</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>246589</v>
+        <v>249517</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>308381</v>
+        <v>310894</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.1718873446314987</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.1526550960087794</v>
+        <v>0.1544681767365002</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.1909088244340968</v>
+        <v>0.192464644529463</v>
       </c>
     </row>
     <row r="22">
@@ -10265,19 +10265,19 @@
         <v>227333</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>198029</v>
+        <v>201373</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>255690</v>
+        <v>258776</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>0.2830785030901554</v>
+        <v>0.2830785030901553</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.2465893601025573</v>
+        <v>0.2507524285785097</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.3183899552940704</v>
+        <v>0.3222320202560125</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>278</v>
@@ -10286,19 +10286,19 @@
         <v>213589</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>190969</v>
+        <v>191123</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>241779</v>
+        <v>238061</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.2629563867661429</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.2351084764252169</v>
+        <v>0.2352977946209724</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.2976620131198298</v>
+        <v>0.2930855866900847</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>479</v>
@@ -10307,19 +10307,19 @@
         <v>440921</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>408586</v>
+        <v>407456</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>480652</v>
+        <v>482674</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.2729602320436373</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.2529423892003506</v>
+        <v>0.2522431700389685</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.2975558650914314</v>
+        <v>0.2988080388130963</v>
       </c>
     </row>
     <row r="23">
@@ -10336,19 +10336,19 @@
         <v>296602</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>266739</v>
+        <v>263450</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>333908</v>
+        <v>327937</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.369334083746422</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.332147867345105</v>
+        <v>0.3280521569332432</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.4157875964806487</v>
+        <v>0.408352278163354</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>265</v>
@@ -10357,19 +10357,19 @@
         <v>232996</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>210023</v>
+        <v>209372</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>260814</v>
+        <v>258036</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.2868496337284416</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.2585671475578922</v>
+        <v>0.2577651483901552</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.3210966001457343</v>
+        <v>0.3176764162243201</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>476</v>
@@ -10378,19 +10378,19 @@
         <v>529598</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>487686</v>
+        <v>487175</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>571521</v>
+        <v>574927</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.327857332048643</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.3019105874019811</v>
+        <v>0.3015943661047229</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.3538105055489401</v>
+        <v>0.3559190222040569</v>
       </c>
     </row>
     <row r="24">
@@ -10482,19 +10482,19 @@
         <v>12286</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>7147</v>
+        <v>7020</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>19693</v>
+        <v>19354</v>
       </c>
       <c r="G25" s="6" t="n">
-        <v>0.01240893681945376</v>
+        <v>0.01240893681945377</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.007218633460084384</v>
+        <v>0.007090560401200737</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.01989117111710906</v>
+        <v>0.0195481751572844</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>46</v>
@@ -10503,19 +10503,19 @@
         <v>28454</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>21379</v>
+        <v>21245</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>38657</v>
+        <v>37288</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.02547375619070354</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.01914014677773219</v>
+        <v>0.01902034788837976</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.03460857264573879</v>
+        <v>0.03338301518681579</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>62</v>
@@ -10524,19 +10524,19 @@
         <v>40739</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>30625</v>
+        <v>31014</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>51499</v>
+        <v>52233</v>
       </c>
       <c r="U25" s="6" t="n">
-        <v>0.01933481456771663</v>
+        <v>0.01933481456771662</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.01453462845547053</v>
+        <v>0.01471933601929475</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.02444152958209841</v>
+        <v>0.02478964368209936</v>
       </c>
     </row>
     <row r="26">
@@ -10553,19 +10553,19 @@
         <v>49001</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>36998</v>
+        <v>37956</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>63963</v>
+        <v>64153</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.04949293271032382</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.0373694918077382</v>
+        <v>0.03833737516342015</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.06460475805658275</v>
+        <v>0.06479695923451471</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>121</v>
@@ -10574,19 +10574,19 @@
         <v>77687</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>65285</v>
+        <v>64264</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>94537</v>
+        <v>93556</v>
       </c>
       <c r="N26" s="6" t="n">
-        <v>0.06955077385342599</v>
+        <v>0.06955077385342601</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.05844834566381324</v>
+        <v>0.05753365578561232</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.08463684545414295</v>
+        <v>0.08375817234733453</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>176</v>
@@ -10595,19 +10595,19 @@
         <v>126688</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>106717</v>
+        <v>108082</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>147213</v>
+        <v>146370</v>
       </c>
       <c r="U26" s="6" t="n">
-        <v>0.06012592745014424</v>
+        <v>0.06012592745014423</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.05064800630442079</v>
+        <v>0.05129573863590552</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.06986736777907968</v>
+        <v>0.06946719744251863</v>
       </c>
     </row>
     <row r="27">
@@ -10624,19 +10624,19 @@
         <v>139436</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>117612</v>
+        <v>117479</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>163945</v>
+        <v>161298</v>
       </c>
       <c r="G27" s="6" t="n">
         <v>0.1408360088762582</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.118792859926572</v>
+        <v>0.1186578825530008</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.1655903796865714</v>
+        <v>0.1629168401220176</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>319</v>
@@ -10645,19 +10645,19 @@
         <v>207978</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>183697</v>
+        <v>184070</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>229634</v>
+        <v>230967</v>
       </c>
       <c r="N27" s="6" t="n">
         <v>0.1861969631458885</v>
       </c>
       <c r="O27" s="6" t="n">
-        <v>0.1644594049086176</v>
+        <v>0.1647933658294259</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.205585083682263</v>
+        <v>0.2067785935746838</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>478</v>
@@ -10666,19 +10666,19 @@
         <v>347414</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>313980</v>
+        <v>316161</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>376959</v>
+        <v>381969</v>
       </c>
       <c r="U27" s="6" t="n">
-        <v>0.1648826041554358</v>
+        <v>0.1648826041554357</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.1490148684594665</v>
+        <v>0.1500499390984839</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.1789048992878983</v>
+        <v>0.1812822860868616</v>
       </c>
     </row>
     <row r="28">
@@ -10695,19 +10695,19 @@
         <v>127425</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>107731</v>
+        <v>108158</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>150201</v>
+        <v>146764</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.1287035616772577</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.1088120785999148</v>
+        <v>0.1092431897452569</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.1517083142537341</v>
+        <v>0.1482376058365302</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>253</v>
@@ -10716,19 +10716,19 @@
         <v>170973</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>152755</v>
+        <v>152059</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>195233</v>
+        <v>194719</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.1530678465952338</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.1367574027908551</v>
+        <v>0.1361346287930834</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.1747874693306672</v>
+        <v>0.1743272898764132</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>405</v>
@@ -10737,19 +10737,19 @@
         <v>298398</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>270972</v>
+        <v>268549</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>330543</v>
+        <v>326417</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.1416194737898341</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.1286031217562825</v>
+        <v>0.127453437964623</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.1568758011733998</v>
+        <v>0.1549176785802041</v>
       </c>
     </row>
     <row r="29">
@@ -10766,19 +10766,19 @@
         <v>309160</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>279040</v>
+        <v>278042</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>346603</v>
+        <v>342662</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.3122635612696816</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.2818407554211099</v>
+        <v>0.2808333935870961</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.3500821213411408</v>
+        <v>0.3461019429928942</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>446</v>
@@ -10787,19 +10787,19 @@
         <v>321102</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>294053</v>
+        <v>295185</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>347591</v>
+        <v>349363</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.2874747350233005</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.2632578484122088</v>
+        <v>0.2642711492290741</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.3111895771635449</v>
+        <v>0.3127759012695521</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>752</v>
@@ -10808,19 +10808,19 @@
         <v>630263</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>588689</v>
+        <v>588580</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>672419</v>
+        <v>669473</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.2991225927475166</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.2793918572812495</v>
+        <v>0.2793399234323289</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.3191301115065841</v>
+        <v>0.3177318024450702</v>
       </c>
     </row>
     <row r="30">
@@ -10837,19 +10837,19 @@
         <v>352754</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>321445</v>
+        <v>321657</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>386009</v>
+        <v>387620</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.3562949986470249</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.3246716005901218</v>
+        <v>0.3248852612270527</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.3898831943418304</v>
+        <v>0.3915103398017268</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>375</v>
@@ -10858,19 +10858,19 @@
         <v>310783</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>283385</v>
+        <v>282229</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>339405</v>
+        <v>337715</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.2782359251914476</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.2537074214192505</v>
+        <v>0.2526728011572442</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.3038610199842653</v>
+        <v>0.3023474891485454</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>693</v>
@@ -10879,19 +10879,19 @@
         <v>663537</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>619396</v>
+        <v>618265</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>706281</v>
+        <v>709049</v>
       </c>
       <c r="U30" s="6" t="n">
-        <v>0.3149145872893528</v>
+        <v>0.3149145872893527</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.293965211950009</v>
+        <v>0.2934284750043266</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.3352007084482077</v>
+        <v>0.3365145734075173</v>
       </c>
     </row>
     <row r="31">
@@ -10983,19 +10983,19 @@
         <v>60187</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>45117</v>
+        <v>47365</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>77224</v>
+        <v>79572</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.01704163787042592</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.0127747340477968</v>
+        <v>0.01341124302566658</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.02186562875992508</v>
+        <v>0.0225303742966698</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>202</v>
@@ -11004,19 +11004,19 @@
         <v>112993</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>97898</v>
+        <v>95634</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>133230</v>
+        <v>131591</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.03027987404314678</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.02623476480804898</v>
+        <v>0.02562798326695155</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.03570299109527373</v>
+        <v>0.03526371540760616</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>274</v>
@@ -11025,19 +11025,19 @@
         <v>173180</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>152118</v>
+        <v>151627</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>199869</v>
+        <v>198063</v>
       </c>
       <c r="U32" s="6" t="n">
-        <v>0.02384287236274402</v>
+        <v>0.02384287236274401</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.02094306361913647</v>
+        <v>0.02087556654833151</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.02751730054330782</v>
+        <v>0.02726872535680518</v>
       </c>
     </row>
     <row r="33">
@@ -11054,19 +11054,19 @@
         <v>165454</v>
       </c>
       <c r="E33" s="5" t="n">
-        <v>141277</v>
+        <v>140767</v>
       </c>
       <c r="F33" s="5" t="n">
-        <v>194478</v>
+        <v>193086</v>
       </c>
       <c r="G33" s="6" t="n">
-        <v>0.04684735877431728</v>
+        <v>0.04684735877431727</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>0.04000160428212891</v>
+        <v>0.03985720861569772</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>0.0550652130957654</v>
+        <v>0.05467109207921209</v>
       </c>
       <c r="J33" s="5" t="n">
         <v>356</v>
@@ -11075,19 +11075,19 @@
         <v>222266</v>
       </c>
       <c r="L33" s="5" t="n">
-        <v>199303</v>
+        <v>197908</v>
       </c>
       <c r="M33" s="5" t="n">
-        <v>246773</v>
+        <v>248235</v>
       </c>
       <c r="N33" s="6" t="n">
-        <v>0.05956304594632648</v>
+        <v>0.05956304594632645</v>
       </c>
       <c r="O33" s="6" t="n">
-        <v>0.05340918373364219</v>
+        <v>0.05303557778504187</v>
       </c>
       <c r="P33" s="6" t="n">
-        <v>0.06613030376368242</v>
+        <v>0.06652215103013805</v>
       </c>
       <c r="Q33" s="5" t="n">
         <v>533</v>
@@ -11096,19 +11096,19 @@
         <v>387721</v>
       </c>
       <c r="S33" s="5" t="n">
-        <v>350966</v>
+        <v>355926</v>
       </c>
       <c r="T33" s="5" t="n">
-        <v>422611</v>
+        <v>422274</v>
       </c>
       <c r="U33" s="6" t="n">
         <v>0.0533801301389802</v>
       </c>
       <c r="V33" s="6" t="n">
-        <v>0.04831988182382608</v>
+        <v>0.04900276366907527</v>
       </c>
       <c r="W33" s="6" t="n">
-        <v>0.05818368508290045</v>
+        <v>0.05813734322359716</v>
       </c>
     </row>
     <row r="34">
@@ -11125,19 +11125,19 @@
         <v>430756</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>392200</v>
+        <v>390394</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>470901</v>
+        <v>472106</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.1219658385936754</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.1110490040046347</v>
+        <v>0.1105375336517632</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.1333326051437089</v>
+        <v>0.1336738240714982</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>1064</v>
@@ -11146,19 +11146,19 @@
         <v>654628</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>616723</v>
+        <v>611655</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>692299</v>
+        <v>696676</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.1754275148123186</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.1652697528429327</v>
+        <v>0.1639116113367081</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.1855224523228602</v>
+        <v>0.1866954351762904</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>1564</v>
@@ -11167,19 +11167,19 @@
         <v>1085384</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>1028459</v>
+        <v>1027748</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>1134075</v>
+        <v>1141390</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.1494321408692486</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.1415948802199269</v>
+        <v>0.1414970141839354</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.1561357461222855</v>
+        <v>0.15714279925301</v>
       </c>
     </row>
     <row r="35">
@@ -11196,19 +11196,19 @@
         <v>540139</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>496571</v>
+        <v>495725</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>586092</v>
+        <v>584010</v>
       </c>
       <c r="G35" s="6" t="n">
-        <v>0.1529369000131423</v>
+        <v>0.1529369000131424</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>0.1406010661543385</v>
+        <v>0.1403615093216556</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.1659483406652599</v>
+        <v>0.16535889932067</v>
       </c>
       <c r="J35" s="5" t="n">
         <v>921</v>
@@ -11217,19 +11217,19 @@
         <v>600908</v>
       </c>
       <c r="L35" s="5" t="n">
-        <v>565124</v>
+        <v>563626</v>
       </c>
       <c r="M35" s="5" t="n">
-        <v>640323</v>
+        <v>639277</v>
       </c>
       <c r="N35" s="6" t="n">
-        <v>0.1610315286336998</v>
+        <v>0.1610315286336997</v>
       </c>
       <c r="O35" s="6" t="n">
-        <v>0.1514420164430217</v>
+        <v>0.1510405657828437</v>
       </c>
       <c r="P35" s="6" t="n">
-        <v>0.1715939762517709</v>
+        <v>0.1713137036433686</v>
       </c>
       <c r="Q35" s="5" t="n">
         <v>1487</v>
@@ -11238,19 +11238,19 @@
         <v>1141047</v>
       </c>
       <c r="S35" s="5" t="n">
-        <v>1083236</v>
+        <v>1083409</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>1202681</v>
+        <v>1201700</v>
       </c>
       <c r="U35" s="6" t="n">
         <v>0.1570955709008914</v>
       </c>
       <c r="V35" s="6" t="n">
-        <v>0.1491364093251719</v>
+        <v>0.1491601942844636</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.1655812289139264</v>
+        <v>0.1654460916610657</v>
       </c>
     </row>
     <row r="36">
@@ -11267,19 +11267,19 @@
         <v>961890</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>909826</v>
+        <v>910165</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>1019014</v>
+        <v>1028332</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.27235322468494</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.2576115618335738</v>
+        <v>0.257707553841325</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.2885276378062751</v>
+        <v>0.2911657685227573</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>1418</v>
@@ -11288,19 +11288,19 @@
         <v>997070</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>948747</v>
+        <v>946582</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>1044928</v>
+        <v>1042213</v>
       </c>
       <c r="N36" s="6" t="n">
-        <v>0.2671951969332312</v>
+        <v>0.2671951969332311</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.2542454775055191</v>
+        <v>0.2536654954208963</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.2800202411270347</v>
+        <v>0.2792927115560773</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>2344</v>
@@ -11309,19 +11309,19 @@
         <v>1958960</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>1887976</v>
+        <v>1885464</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>2034521</v>
+        <v>2041700</v>
       </c>
       <c r="U36" s="6" t="n">
-        <v>0.2697032526041016</v>
+        <v>0.2697032526041015</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.2599303564635625</v>
+        <v>0.2595846025846577</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.2801062337961788</v>
+        <v>0.2810945659705775</v>
       </c>
     </row>
     <row r="37">
@@ -11338,19 +11338,19 @@
         <v>1373348</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>1310947</v>
+        <v>1305815</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>1436871</v>
+        <v>1439504</v>
       </c>
       <c r="G37" s="6" t="n">
-        <v>0.3888550400634991</v>
+        <v>0.3888550400634992</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.3711866063194281</v>
+        <v>0.3697335075111184</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.4068412394604348</v>
+        <v>0.4075867019598847</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>1398</v>
@@ -11359,19 +11359,19 @@
         <v>1143751</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>1091231</v>
+        <v>1089842</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>1193877</v>
+        <v>1194214</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.3065028396312773</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.2924283741151121</v>
+        <v>0.2920562721348088</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.3199356266064228</v>
+        <v>0.3200257656254665</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>2532</v>
@@ -11380,19 +11380,19 @@
         <v>2517099</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>2437037</v>
+        <v>2430206</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>2596049</v>
+        <v>2605065</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.3465460331240344</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.3355233734370907</v>
+        <v>0.3345828395670978</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.357415600827298</v>
+        <v>0.3586568218112475</v>
       </c>
     </row>
     <row r="38">
